--- a/Team_Data.xlsx
+++ b/Team_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\baldies_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9638f6de01d1f561/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DCC72A7-3A55-4FB5-8F91-52619AF4DB65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B443767-FCC5-4D6D-980F-FECE7377E7FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F814BBD-7CD2-497A-95AA-D41F6F5F9FEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8F814BBD-7CD2-497A-95AA-D41F6F5F9FEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="915">
   <si>
     <t>Player</t>
   </si>
@@ -2767,6 +2761,15 @@
   </si>
   <si>
     <t>Pts.</t>
+  </si>
+  <si>
+    <t>National Title Winner</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -3123,25 +3126,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3CF456-A86A-4863-B0DC-1800DC4D3A57}">
-  <dimension ref="A1:H642"/>
+  <dimension ref="A1:I642"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A583" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I611" sqref="I611"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="7" style="3" customWidth="1"/>
     <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3166,8 +3170,11 @@
       <c r="H1" s="3" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3187,8 +3194,11 @@
       <c r="H2" s="3">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3208,8 +3218,11 @@
       <c r="H3" s="3">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3229,8 +3242,11 @@
       <c r="H4" s="3">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3250,8 +3266,11 @@
       <c r="H5" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3271,8 +3290,11 @@
       <c r="H6" s="3">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3292,8 +3314,11 @@
       <c r="H7" s="3">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3316,8 +3341,11 @@
       <c r="H8" s="3">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3340,8 +3368,11 @@
       <c r="H9" s="3">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3364,8 +3395,11 @@
       <c r="H10" s="3">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3388,8 +3422,11 @@
       <c r="H11" s="3">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3412,8 +3449,11 @@
       <c r="H12" s="3">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3433,8 +3473,11 @@
       <c r="H13" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3457,8 +3500,11 @@
       <c r="H14" s="3">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3481,8 +3527,11 @@
       <c r="H15" s="3">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3502,8 +3551,11 @@
       <c r="H16" s="3">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -3526,8 +3578,11 @@
       <c r="H17" s="3">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -3550,8 +3605,11 @@
       <c r="H18" s="3">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -3571,8 +3629,11 @@
       <c r="H19" s="3">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -3595,8 +3656,11 @@
       <c r="H20" s="3">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -3616,8 +3680,11 @@
       <c r="H21" s="3">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -3640,8 +3707,11 @@
       <c r="H22" s="3">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3661,8 +3731,11 @@
       <c r="H23" s="3">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3682,8 +3755,11 @@
       <c r="H24" s="3">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3697,8 +3773,11 @@
       <c r="H25" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3718,8 +3797,11 @@
       <c r="H26" s="3">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -3739,8 +3821,11 @@
       <c r="H27" s="3">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3760,8 +3845,11 @@
       <c r="H28" s="3">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -3781,8 +3869,11 @@
       <c r="H29" s="3">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -3802,8 +3893,11 @@
       <c r="H30" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -3823,8 +3917,11 @@
       <c r="H31" s="3">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3844,8 +3941,11 @@
       <c r="H32" s="3">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -3865,8 +3965,11 @@
       <c r="H33" s="3">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -3889,8 +3992,11 @@
       <c r="H34" s="3">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -3910,8 +4016,11 @@
       <c r="H35" s="3">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -3934,8 +4043,11 @@
       <c r="H36" s="3">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -3955,8 +4067,11 @@
       <c r="H37" s="3">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -3979,8 +4094,11 @@
       <c r="H38" s="3">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -4003,8 +4121,11 @@
       <c r="H39" s="3">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -4027,8 +4148,11 @@
       <c r="H40" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -4048,8 +4172,11 @@
       <c r="H41" s="3">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -4072,8 +4199,11 @@
       <c r="H42" s="3">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -4096,8 +4226,11 @@
       <c r="H43" s="3">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -4120,8 +4253,11 @@
       <c r="H44" s="3">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -4144,8 +4280,11 @@
       <c r="H45" s="3">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -4165,8 +4304,11 @@
       <c r="H46" s="3">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -4189,8 +4331,11 @@
       <c r="H47" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4355,11 @@
       <c r="H48" s="3">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -4231,8 +4379,11 @@
       <c r="H49" s="3">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -4255,8 +4406,11 @@
       <c r="H50" s="3">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -4276,8 +4430,11 @@
       <c r="H51" s="3">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -4297,8 +4454,11 @@
       <c r="H52" s="3">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -4321,8 +4481,11 @@
       <c r="H53" s="3">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -4345,8 +4508,11 @@
       <c r="H54" s="3">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -4366,8 +4532,11 @@
       <c r="H55" s="3">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -4390,8 +4559,11 @@
       <c r="H56" s="3">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -4411,8 +4583,11 @@
       <c r="H57" s="3">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -4432,8 +4607,11 @@
       <c r="H58" s="3">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -4456,8 +4634,11 @@
       <c r="H59" s="3">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -4477,8 +4658,11 @@
       <c r="H60" s="3">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -4498,8 +4682,11 @@
       <c r="H61" s="3">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -4522,8 +4709,11 @@
       <c r="H62" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -4543,8 +4733,11 @@
       <c r="H63" s="3">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -4567,8 +4760,11 @@
       <c r="H64" s="3">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -4588,8 +4784,11 @@
       <c r="H65" s="3">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -4611,8 +4810,11 @@
       <c r="H66" s="3">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -4637,8 +4839,11 @@
       <c r="H67" s="3">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -4663,8 +4868,11 @@
       <c r="H68" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -4686,8 +4894,11 @@
       <c r="H69" s="3">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -4709,8 +4920,11 @@
       <c r="H70" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -4732,8 +4946,11 @@
       <c r="H71" s="3">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -4758,8 +4975,11 @@
       <c r="H72" s="3">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -4784,8 +5004,11 @@
       <c r="H73" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -4807,8 +5030,11 @@
       <c r="H74" s="3">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -4833,8 +5059,11 @@
       <c r="H75" s="3">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -4856,8 +5085,11 @@
       <c r="H76" s="3">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -4879,8 +5111,11 @@
       <c r="H77" s="3">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4905,8 +5140,11 @@
       <c r="H78" s="3">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -4931,8 +5169,11 @@
       <c r="H79" s="3">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -4954,8 +5195,11 @@
       <c r="H80" s="3">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -4980,8 +5224,11 @@
       <c r="H81" s="3">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -5003,8 +5250,11 @@
       <c r="H82" s="3">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -5026,8 +5276,11 @@
       <c r="H83" s="3">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -5052,8 +5305,11 @@
       <c r="H84" s="3">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -5075,8 +5331,11 @@
       <c r="H85" s="3">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>105</v>
       </c>
@@ -5098,8 +5357,11 @@
       <c r="H86" s="3">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -5121,8 +5383,11 @@
       <c r="H87" s="3">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>107</v>
       </c>
@@ -5144,8 +5409,11 @@
       <c r="H88" s="3">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -5170,8 +5438,11 @@
       <c r="H89" s="3">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>115</v>
       </c>
@@ -5193,8 +5464,11 @@
       <c r="H90" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -5216,8 +5490,11 @@
       <c r="H91" s="3">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -5239,8 +5516,11 @@
       <c r="H92" s="3">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>121</v>
       </c>
@@ -5262,8 +5542,11 @@
       <c r="H93" s="3">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>122</v>
       </c>
@@ -5285,8 +5568,11 @@
       <c r="H94" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>124</v>
       </c>
@@ -5305,8 +5591,11 @@
       <c r="H95" s="3">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>125</v>
       </c>
@@ -5328,8 +5617,11 @@
       <c r="H96" s="3">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>142</v>
       </c>
@@ -5354,8 +5646,11 @@
       <c r="H97" s="3">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>144</v>
       </c>
@@ -5374,8 +5669,11 @@
       <c r="H98" s="3">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>145</v>
       </c>
@@ -5400,8 +5698,11 @@
       <c r="H99" s="3">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>147</v>
       </c>
@@ -5426,8 +5727,11 @@
       <c r="H100" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>148</v>
       </c>
@@ -5452,8 +5756,11 @@
       <c r="H101" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>149</v>
       </c>
@@ -5475,8 +5782,11 @@
       <c r="H102" s="3">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>151</v>
       </c>
@@ -5501,8 +5811,11 @@
       <c r="H103" s="3">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>153</v>
       </c>
@@ -5524,8 +5837,11 @@
       <c r="H104" s="3">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>100</v>
       </c>
@@ -5547,8 +5863,11 @@
       <c r="H105" s="3">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -5570,8 +5889,11 @@
       <c r="H106" s="3">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -5593,8 +5915,11 @@
       <c r="H107" s="3">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -5616,8 +5941,11 @@
       <c r="H108" s="3">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -5639,8 +5967,11 @@
       <c r="H109" s="3">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>156</v>
       </c>
@@ -5662,8 +5993,11 @@
       <c r="H110" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -5685,8 +6019,11 @@
       <c r="H111" s="3">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -5708,8 +6045,11 @@
       <c r="H112" s="3">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>158</v>
       </c>
@@ -5734,8 +6074,11 @@
       <c r="H113" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>159</v>
       </c>
@@ -5760,8 +6103,11 @@
       <c r="H114" s="3">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>161</v>
       </c>
@@ -5786,8 +6132,11 @@
       <c r="H115" s="3">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>163</v>
       </c>
@@ -5812,8 +6161,11 @@
       <c r="H116" s="3">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>164</v>
       </c>
@@ -5832,8 +6184,11 @@
       <c r="H117" s="3">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>165</v>
       </c>
@@ -5858,8 +6213,11 @@
       <c r="H118" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>167</v>
       </c>
@@ -5878,8 +6236,11 @@
       <c r="H119" s="3">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>168</v>
       </c>
@@ -5901,8 +6262,11 @@
       <c r="H120" s="3">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>171</v>
       </c>
@@ -5924,8 +6288,11 @@
       <c r="H121" s="3">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>173</v>
       </c>
@@ -5950,8 +6317,11 @@
       <c r="H122" s="3">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>175</v>
       </c>
@@ -5973,8 +6343,11 @@
       <c r="H123" s="3">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>176</v>
       </c>
@@ -5999,8 +6372,11 @@
       <c r="H124" s="3">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>178</v>
       </c>
@@ -6022,8 +6398,11 @@
       <c r="H125" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>179</v>
       </c>
@@ -6045,8 +6424,11 @@
       <c r="H126" s="3">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>180</v>
       </c>
@@ -6068,8 +6450,11 @@
       <c r="H127" s="3">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>181</v>
       </c>
@@ -6091,8 +6476,11 @@
       <c r="H128" s="3">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>183</v>
       </c>
@@ -6114,8 +6502,11 @@
       <c r="H129" s="3">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>184</v>
       </c>
@@ -6137,8 +6528,11 @@
       <c r="H130" s="3">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>185</v>
       </c>
@@ -6163,8 +6557,11 @@
       <c r="H131" s="3">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>187</v>
       </c>
@@ -6186,8 +6583,11 @@
       <c r="H132" s="3">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>188</v>
       </c>
@@ -6209,8 +6609,11 @@
       <c r="H133" s="3">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>189</v>
       </c>
@@ -6235,8 +6638,11 @@
       <c r="H134" s="3">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>191</v>
       </c>
@@ -6258,8 +6664,11 @@
       <c r="H135" s="3">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>192</v>
       </c>
@@ -6278,8 +6687,11 @@
       <c r="H136" s="3">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>193</v>
       </c>
@@ -6304,8 +6716,11 @@
       <c r="H137" s="3">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>195</v>
       </c>
@@ -6327,8 +6742,11 @@
       <c r="H138" s="3">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I138" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>196</v>
       </c>
@@ -6353,8 +6771,11 @@
       <c r="H139" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>198</v>
       </c>
@@ -6379,8 +6800,11 @@
       <c r="H140" s="3">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>199</v>
       </c>
@@ -6399,8 +6823,11 @@
       <c r="H141" s="3">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I141" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>200</v>
       </c>
@@ -6422,8 +6849,11 @@
       <c r="H142" s="3">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>201</v>
       </c>
@@ -6445,8 +6875,11 @@
       <c r="H143" s="3">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I143" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>203</v>
       </c>
@@ -6468,8 +6901,11 @@
       <c r="H144" s="3">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>206</v>
       </c>
@@ -6491,8 +6927,11 @@
       <c r="H145" s="3">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>207</v>
       </c>
@@ -6514,8 +6953,11 @@
       <c r="H146" s="3">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I146" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>208</v>
       </c>
@@ -6537,8 +6979,11 @@
       <c r="H147" s="3">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I147" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>209</v>
       </c>
@@ -6560,8 +7005,11 @@
       <c r="H148" s="3">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I148" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>49</v>
       </c>
@@ -6583,8 +7031,11 @@
       <c r="H149" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>210</v>
       </c>
@@ -6606,8 +7057,11 @@
       <c r="H150" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -6632,8 +7086,11 @@
       <c r="H151" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I151" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>52</v>
       </c>
@@ -6655,8 +7112,11 @@
       <c r="H152" s="3">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I152" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>213</v>
       </c>
@@ -6675,8 +7135,11 @@
       <c r="H153" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I153" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>214</v>
       </c>
@@ -6695,8 +7158,11 @@
       <c r="H154" s="3">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I154" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>215</v>
       </c>
@@ -6715,8 +7181,11 @@
       <c r="H155" s="3">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I155" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>216</v>
       </c>
@@ -6738,8 +7207,11 @@
       <c r="H156" s="3">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I156" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>217</v>
       </c>
@@ -6761,8 +7233,11 @@
       <c r="H157" s="3">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I157" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>219</v>
       </c>
@@ -6784,8 +7259,11 @@
       <c r="H158" s="3">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I158" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>221</v>
       </c>
@@ -6807,8 +7285,11 @@
       <c r="H159" s="3">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I159" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>223</v>
       </c>
@@ -6827,8 +7308,11 @@
       <c r="H160" s="3">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I160" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>225</v>
       </c>
@@ -6850,8 +7334,11 @@
       <c r="H161" s="3">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I161" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>226</v>
       </c>
@@ -6873,8 +7360,11 @@
       <c r="H162" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I162" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>227</v>
       </c>
@@ -6896,8 +7386,11 @@
       <c r="H163" s="3">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I163" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>228</v>
       </c>
@@ -6919,8 +7412,11 @@
       <c r="H164" s="3">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I164" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>229</v>
       </c>
@@ -6942,8 +7438,11 @@
       <c r="H165" s="3">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I165" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>230</v>
       </c>
@@ -6965,8 +7464,11 @@
       <c r="H166" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I166" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>231</v>
       </c>
@@ -6991,8 +7493,11 @@
       <c r="H167" s="3">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I167" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>232</v>
       </c>
@@ -7011,8 +7516,11 @@
       <c r="H168" s="3">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I168" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>235</v>
       </c>
@@ -7031,8 +7539,11 @@
       <c r="H169" s="3">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I169" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>236</v>
       </c>
@@ -7057,8 +7568,11 @@
       <c r="H170" s="3">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I170" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>238</v>
       </c>
@@ -7083,8 +7597,11 @@
       <c r="H171" s="3">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I171" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>240</v>
       </c>
@@ -7106,8 +7623,11 @@
       <c r="H172" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I172" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>241</v>
       </c>
@@ -7132,8 +7652,11 @@
       <c r="H173" s="3">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I173" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>243</v>
       </c>
@@ -7155,8 +7678,11 @@
       <c r="H174" s="3">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I174" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>244</v>
       </c>
@@ -7181,8 +7707,11 @@
       <c r="H175" s="3">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I175" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>246</v>
       </c>
@@ -7207,8 +7736,11 @@
       <c r="H176" s="3">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I176" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>249</v>
       </c>
@@ -7230,8 +7762,11 @@
       <c r="H177" s="3">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I177" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>250</v>
       </c>
@@ -7253,8 +7788,11 @@
       <c r="H178" s="3">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I178" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>252</v>
       </c>
@@ -7279,8 +7817,11 @@
       <c r="H179" s="3">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I179" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>254</v>
       </c>
@@ -7302,8 +7843,11 @@
       <c r="H180" s="3">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I180" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>256</v>
       </c>
@@ -7325,8 +7869,11 @@
       <c r="H181" s="3">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I181" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>257</v>
       </c>
@@ -7351,8 +7898,11 @@
       <c r="H182" s="3">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I182" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>259</v>
       </c>
@@ -7371,8 +7921,11 @@
       <c r="H183" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I183" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>260</v>
       </c>
@@ -7397,8 +7950,11 @@
       <c r="H184" s="3">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I184" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>262</v>
       </c>
@@ -7420,8 +7976,11 @@
       <c r="H185" s="3">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I185" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>263</v>
       </c>
@@ -7443,8 +8002,11 @@
       <c r="H186" s="3">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I186" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>264</v>
       </c>
@@ -7469,8 +8031,11 @@
       <c r="H187" s="3">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I187" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>266</v>
       </c>
@@ -7492,8 +8057,11 @@
       <c r="H188" s="3">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I188" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>267</v>
       </c>
@@ -7518,8 +8086,11 @@
       <c r="H189" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I189" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>269</v>
       </c>
@@ -7541,8 +8112,11 @@
       <c r="H190" s="3">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I190" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>270</v>
       </c>
@@ -7567,8 +8141,11 @@
       <c r="H191" s="3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I191" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>272</v>
       </c>
@@ -7593,8 +8170,11 @@
       <c r="H192" s="3">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I192" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>273</v>
       </c>
@@ -7619,8 +8199,11 @@
       <c r="H193" s="3">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I193" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>274</v>
       </c>
@@ -7642,8 +8225,11 @@
       <c r="H194" s="3">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I194" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>276</v>
       </c>
@@ -7668,8 +8254,11 @@
       <c r="H195" s="3">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I195" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>278</v>
       </c>
@@ -7691,8 +8280,11 @@
       <c r="H196" s="3">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I196" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>279</v>
       </c>
@@ -7714,8 +8306,11 @@
       <c r="H197" s="3">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I197" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>281</v>
       </c>
@@ -7740,8 +8335,11 @@
       <c r="H198" s="3">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I198" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>282</v>
       </c>
@@ -7760,8 +8358,11 @@
       <c r="H199" s="3">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I199" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>283</v>
       </c>
@@ -7783,8 +8384,11 @@
       <c r="H200" s="3">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I200" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>284</v>
       </c>
@@ -7809,8 +8413,11 @@
       <c r="H201" s="3">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I201" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>285</v>
       </c>
@@ -7832,8 +8439,11 @@
       <c r="H202" s="3">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I202" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>286</v>
       </c>
@@ -7852,8 +8462,11 @@
       <c r="H203" s="3">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I203" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>287</v>
       </c>
@@ -7875,8 +8488,11 @@
       <c r="H204" s="3">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I204" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>288</v>
       </c>
@@ -7895,8 +8511,11 @@
       <c r="H205" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I205" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>289</v>
       </c>
@@ -7921,8 +8540,11 @@
       <c r="H206" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I206" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>291</v>
       </c>
@@ -7944,8 +8566,11 @@
       <c r="H207" s="3">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I207" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>293</v>
       </c>
@@ -7967,8 +8592,11 @@
       <c r="H208" s="3">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I208" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>297</v>
       </c>
@@ -7993,8 +8621,11 @@
       <c r="H209" s="3">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I209" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>299</v>
       </c>
@@ -8016,8 +8647,11 @@
       <c r="H210" s="3">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I210" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>301</v>
       </c>
@@ -8042,8 +8676,11 @@
       <c r="H211" s="3">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I211" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>303</v>
       </c>
@@ -8062,8 +8699,11 @@
       <c r="H212" s="3">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I212" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>304</v>
       </c>
@@ -8085,8 +8725,11 @@
       <c r="H213" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I213" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>305</v>
       </c>
@@ -8108,8 +8751,11 @@
       <c r="H214" s="3">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I214" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>306</v>
       </c>
@@ -8131,8 +8777,11 @@
       <c r="H215" s="3">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I215" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>307</v>
       </c>
@@ -8154,8 +8803,11 @@
       <c r="H216" s="3">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I216" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>309</v>
       </c>
@@ -8177,8 +8829,11 @@
       <c r="H217" s="3">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I217" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>311</v>
       </c>
@@ -8200,8 +8855,11 @@
       <c r="H218" s="3">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I218" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>313</v>
       </c>
@@ -8223,8 +8881,11 @@
       <c r="H219" s="3">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I219" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>315</v>
       </c>
@@ -8246,8 +8907,11 @@
       <c r="H220" s="3">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I220" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>316</v>
       </c>
@@ -8269,8 +8933,11 @@
       <c r="H221" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I221" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>317</v>
       </c>
@@ -8292,8 +8959,11 @@
       <c r="H222" s="3">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I222" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>319</v>
       </c>
@@ -8315,8 +8985,11 @@
       <c r="H223" s="3">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I223" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>320</v>
       </c>
@@ -8338,8 +9011,11 @@
       <c r="H224" s="3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I224" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>274</v>
       </c>
@@ -8361,8 +9037,11 @@
       <c r="H225" s="3">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I225" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>278</v>
       </c>
@@ -8384,8 +9063,11 @@
       <c r="H226" s="3">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I226" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>276</v>
       </c>
@@ -8410,8 +9092,11 @@
       <c r="H227" s="3">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I227" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>273</v>
       </c>
@@ -8436,8 +9121,11 @@
       <c r="H228" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I228" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>279</v>
       </c>
@@ -8459,8 +9147,11 @@
       <c r="H229" s="3">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I229" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>281</v>
       </c>
@@ -8485,8 +9176,11 @@
       <c r="H230" s="3">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I230" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>282</v>
       </c>
@@ -8505,8 +9199,11 @@
       <c r="H231" s="3">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I231" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>322</v>
       </c>
@@ -8531,8 +9228,11 @@
       <c r="H232" s="3">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I232" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>326</v>
       </c>
@@ -8557,8 +9257,11 @@
       <c r="H233" s="3">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I233" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>327</v>
       </c>
@@ -8580,8 +9283,11 @@
       <c r="H234" s="3">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I234" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>329</v>
       </c>
@@ -8606,8 +9312,11 @@
       <c r="H235" s="3">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I235" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>330</v>
       </c>
@@ -8632,8 +9341,11 @@
       <c r="H236" s="3">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I236" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>332</v>
       </c>
@@ -8658,8 +9370,11 @@
       <c r="H237" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I237" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>334</v>
       </c>
@@ -8684,8 +9399,11 @@
       <c r="H238" s="3">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I238" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>336</v>
       </c>
@@ -8707,8 +9425,11 @@
       <c r="H239" s="3">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I239" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>337</v>
       </c>
@@ -8733,8 +9454,11 @@
       <c r="H240" s="3">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I240" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>284</v>
       </c>
@@ -8759,8 +9483,11 @@
       <c r="H241" s="3">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I241" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>296</v>
       </c>
@@ -8785,8 +9512,11 @@
       <c r="H242" s="3">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I242" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>289</v>
       </c>
@@ -8811,8 +9541,11 @@
       <c r="H243" s="3">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I243" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>286</v>
       </c>
@@ -8831,8 +9564,11 @@
       <c r="H244" s="3">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I244" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>294</v>
       </c>
@@ -8854,8 +9590,11 @@
       <c r="H245" s="3">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I245" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>291</v>
       </c>
@@ -8877,8 +9616,11 @@
       <c r="H246" s="3">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I246" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>293</v>
       </c>
@@ -8900,8 +9642,11 @@
       <c r="H247" s="3">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I247" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>340</v>
       </c>
@@ -8923,8 +9668,11 @@
       <c r="H248" s="3">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I248" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>345</v>
       </c>
@@ -8946,8 +9694,11 @@
       <c r="H249" s="3">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I249" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>347</v>
       </c>
@@ -8969,8 +9720,11 @@
       <c r="H250" s="3">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I250" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>349</v>
       </c>
@@ -8992,8 +9746,11 @@
       <c r="H251" s="3">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I251" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>351</v>
       </c>
@@ -9018,8 +9775,11 @@
       <c r="H252" s="3">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I252" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>352</v>
       </c>
@@ -9041,8 +9801,11 @@
       <c r="H253" s="3">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I253" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>353</v>
       </c>
@@ -9067,8 +9830,11 @@
       <c r="H254" s="3">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I254" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>355</v>
       </c>
@@ -9090,8 +9856,11 @@
       <c r="H255" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I255" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>357</v>
       </c>
@@ -9116,8 +9885,11 @@
       <c r="H256" s="3">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I256" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>359</v>
       </c>
@@ -9142,8 +9914,11 @@
       <c r="H257" s="3">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I257" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>360</v>
       </c>
@@ -9168,8 +9943,11 @@
       <c r="H258" s="3">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I258" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>362</v>
       </c>
@@ -9194,8 +9972,11 @@
       <c r="H259" s="3">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I259" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>364</v>
       </c>
@@ -9220,8 +10001,11 @@
       <c r="H260" s="3">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I260" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>365</v>
       </c>
@@ -9246,8 +10030,11 @@
       <c r="H261" s="3">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I261" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>366</v>
       </c>
@@ -9272,8 +10059,11 @@
       <c r="H262" s="3">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I262" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>367</v>
       </c>
@@ -9298,8 +10088,11 @@
       <c r="H263" s="3">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I263" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>369</v>
       </c>
@@ -9324,8 +10117,11 @@
       <c r="H264" s="3">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I264" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>375</v>
       </c>
@@ -9350,8 +10146,11 @@
       <c r="H265" s="3">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I265" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>376</v>
       </c>
@@ -9376,8 +10175,11 @@
       <c r="H266" s="3">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I266" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>377</v>
       </c>
@@ -9402,8 +10204,11 @@
       <c r="H267" s="3">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I267" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>379</v>
       </c>
@@ -9425,8 +10230,11 @@
       <c r="H268" s="3">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I268" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>381</v>
       </c>
@@ -9451,8 +10259,11 @@
       <c r="H269" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I269" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>382</v>
       </c>
@@ -9474,8 +10285,11 @@
       <c r="H270" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I270" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>383</v>
       </c>
@@ -9500,8 +10314,11 @@
       <c r="H271" s="3">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I271" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>385</v>
       </c>
@@ -9526,8 +10343,11 @@
       <c r="H272" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I272" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>388</v>
       </c>
@@ -9552,8 +10372,11 @@
       <c r="H273" s="3">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I273" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>340</v>
       </c>
@@ -9575,8 +10398,11 @@
       <c r="H274" s="3">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I274" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>289</v>
       </c>
@@ -9601,8 +10427,11 @@
       <c r="H275" s="3">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I275" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>296</v>
       </c>
@@ -9627,8 +10456,11 @@
       <c r="H276" s="3">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I276" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>286</v>
       </c>
@@ -9647,8 +10479,11 @@
       <c r="H277" s="3">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I277" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>293</v>
       </c>
@@ -9670,8 +10505,11 @@
       <c r="H278" s="3">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I278" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>294</v>
       </c>
@@ -9693,8 +10531,11 @@
       <c r="H279" s="3">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I279" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>342</v>
       </c>
@@ -9719,8 +10560,11 @@
       <c r="H280" s="3">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I280" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>390</v>
       </c>
@@ -9745,8 +10589,11 @@
       <c r="H281" s="3">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I281" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>392</v>
       </c>
@@ -9771,8 +10618,11 @@
       <c r="H282" s="3">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I282" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>394</v>
       </c>
@@ -9797,8 +10647,11 @@
       <c r="H283" s="3">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I283" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>396</v>
       </c>
@@ -9823,8 +10676,11 @@
       <c r="H284" s="3">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I284" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>398</v>
       </c>
@@ -9849,8 +10705,11 @@
       <c r="H285" s="3">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I285" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>400</v>
       </c>
@@ -9875,8 +10734,11 @@
       <c r="H286" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I286" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>402</v>
       </c>
@@ -9898,8 +10760,11 @@
       <c r="H287" s="3">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I287" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>234</v>
       </c>
@@ -9924,8 +10789,11 @@
       <c r="H288" s="3">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I288" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>390</v>
       </c>
@@ -9950,8 +10818,11 @@
       <c r="H289" s="3">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I289" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>392</v>
       </c>
@@ -9976,8 +10847,11 @@
       <c r="H290" s="3">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I290" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>396</v>
       </c>
@@ -10002,8 +10876,11 @@
       <c r="H291" s="3">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I291" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>394</v>
       </c>
@@ -10028,8 +10905,11 @@
       <c r="H292" s="3">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I292" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>398</v>
       </c>
@@ -10054,8 +10934,11 @@
       <c r="H293" s="3">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I293" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>408</v>
       </c>
@@ -10080,8 +10963,11 @@
       <c r="H294" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I294" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>405</v>
       </c>
@@ -10106,8 +10992,11 @@
       <c r="H295" s="3">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I295" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>403</v>
       </c>
@@ -10132,8 +11021,11 @@
       <c r="H296" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I296" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>409</v>
       </c>
@@ -10158,8 +11050,11 @@
       <c r="H297" s="3">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I297" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>410</v>
       </c>
@@ -10184,8 +11079,11 @@
       <c r="H298" s="3">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I298" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>412</v>
       </c>
@@ -10207,8 +11105,11 @@
       <c r="H299" s="3">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I299" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>414</v>
       </c>
@@ -10233,8 +11134,11 @@
       <c r="H300" s="3">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I300" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>415</v>
       </c>
@@ -10259,8 +11163,11 @@
       <c r="H301" s="3">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I301" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>417</v>
       </c>
@@ -10285,8 +11192,11 @@
       <c r="H302" s="3">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I302" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>419</v>
       </c>
@@ -10308,8 +11218,11 @@
       <c r="H303" s="3">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I303" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>420</v>
       </c>
@@ -10334,8 +11247,11 @@
       <c r="H304" s="3">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I304" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>422</v>
       </c>
@@ -10360,8 +11276,11 @@
       <c r="H305" s="3">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I305" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>424</v>
       </c>
@@ -10386,8 +11305,11 @@
       <c r="H306" s="3">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I306" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>426</v>
       </c>
@@ -10409,8 +11331,11 @@
       <c r="H307" s="3">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I307" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>427</v>
       </c>
@@ -10435,8 +11360,11 @@
       <c r="H308" s="3">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I308" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>429</v>
       </c>
@@ -10461,8 +11389,11 @@
       <c r="H309" s="3">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I309" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>431</v>
       </c>
@@ -10484,8 +11415,11 @@
       <c r="H310" s="3">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I310" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>433</v>
       </c>
@@ -10510,8 +11444,11 @@
       <c r="H311" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I311" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>434</v>
       </c>
@@ -10533,8 +11470,11 @@
       <c r="H312" s="3">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I312" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>439</v>
       </c>
@@ -10556,8 +11496,11 @@
       <c r="H313" s="3">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I313" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>440</v>
       </c>
@@ -10582,8 +11525,11 @@
       <c r="H314" s="3">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I314" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>442</v>
       </c>
@@ -10608,8 +11554,11 @@
       <c r="H315" s="3">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I315" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>443</v>
       </c>
@@ -10634,8 +11583,11 @@
       <c r="H316" s="3">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I316" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>445</v>
       </c>
@@ -10657,8 +11609,11 @@
       <c r="H317" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I317" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>446</v>
       </c>
@@ -10680,8 +11635,11 @@
       <c r="H318" s="3">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I318" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>448</v>
       </c>
@@ -10703,8 +11661,11 @@
       <c r="H319" s="3">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I319" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>449</v>
       </c>
@@ -10729,8 +11690,11 @@
       <c r="H320" s="3">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I320" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>451</v>
       </c>
@@ -10755,8 +11719,11 @@
       <c r="H321" s="3">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I321" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>453</v>
       </c>
@@ -10781,8 +11748,11 @@
       <c r="H322" s="3">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I322" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>455</v>
       </c>
@@ -10807,8 +11777,11 @@
       <c r="H323" s="3">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I323" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>457</v>
       </c>
@@ -10833,8 +11806,11 @@
       <c r="H324" s="3">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I324" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>459</v>
       </c>
@@ -10859,8 +11835,11 @@
       <c r="H325" s="3">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I325" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>461</v>
       </c>
@@ -10885,8 +11864,11 @@
       <c r="H326" s="3">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I326" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>463</v>
       </c>
@@ -10908,8 +11890,11 @@
       <c r="H327" s="3">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I327" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>465</v>
       </c>
@@ -10934,8 +11919,11 @@
       <c r="H328" s="3">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I328" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>466</v>
       </c>
@@ -10957,8 +11945,11 @@
       <c r="H329" s="3">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I329" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>467</v>
       </c>
@@ -10980,8 +11971,11 @@
       <c r="H330" s="3">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I330" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>469</v>
       </c>
@@ -11003,8 +11997,11 @@
       <c r="H331" s="3">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I331" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>471</v>
       </c>
@@ -11026,8 +12023,11 @@
       <c r="H332" s="3">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I332" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>473</v>
       </c>
@@ -11049,8 +12049,11 @@
       <c r="H333" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I333" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>475</v>
       </c>
@@ -11072,8 +12075,11 @@
       <c r="H334" s="3">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I334" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>477</v>
       </c>
@@ -11095,8 +12101,11 @@
       <c r="H335" s="3">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I335" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>479</v>
       </c>
@@ -11118,8 +12127,11 @@
       <c r="H336" s="3">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I336" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>409</v>
       </c>
@@ -11144,8 +12156,11 @@
       <c r="H337" s="3">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I337" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>414</v>
       </c>
@@ -11170,8 +12185,11 @@
       <c r="H338" s="3">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I338" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>410</v>
       </c>
@@ -11196,8 +12214,11 @@
       <c r="H339" s="3">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I339" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>420</v>
       </c>
@@ -11222,8 +12243,11 @@
       <c r="H340" s="3">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I340" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>415</v>
       </c>
@@ -11248,8 +12272,11 @@
       <c r="H341" s="3">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I341" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>417</v>
       </c>
@@ -11274,8 +12301,11 @@
       <c r="H342" s="3">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I342" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>421</v>
       </c>
@@ -11300,8 +12330,11 @@
       <c r="H343" s="3">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I343" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>484</v>
       </c>
@@ -11326,8 +12359,11 @@
       <c r="H344" s="3">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I344" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>485</v>
       </c>
@@ -11352,8 +12388,11 @@
       <c r="H345" s="3">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I345" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>487</v>
       </c>
@@ -11378,8 +12417,11 @@
       <c r="H346" s="3">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I346" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>488</v>
       </c>
@@ -11404,8 +12446,11 @@
       <c r="H347" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I347" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>490</v>
       </c>
@@ -11427,8 +12472,11 @@
       <c r="H348" s="3">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I348" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>491</v>
       </c>
@@ -11450,8 +12498,11 @@
       <c r="H349" s="3">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I349" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>493</v>
       </c>
@@ -11473,8 +12524,11 @@
       <c r="H350" s="3">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I350" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>495</v>
       </c>
@@ -11496,8 +12550,11 @@
       <c r="H351" s="3">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I351" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>497</v>
       </c>
@@ -11519,8 +12576,11 @@
       <c r="H352" s="3">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I352" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>427</v>
       </c>
@@ -11545,8 +12605,11 @@
       <c r="H353" s="3">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I353" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>499</v>
       </c>
@@ -11571,8 +12634,11 @@
       <c r="H354" s="3">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I354" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>501</v>
       </c>
@@ -11597,8 +12663,11 @@
       <c r="H355" s="3">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I355" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>503</v>
       </c>
@@ -11623,8 +12692,11 @@
       <c r="H356" s="3">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I356" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>505</v>
       </c>
@@ -11649,8 +12721,11 @@
       <c r="H357" s="3">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I357" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>506</v>
       </c>
@@ -11675,8 +12750,11 @@
       <c r="H358" s="3">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I358" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>437</v>
       </c>
@@ -11695,8 +12773,11 @@
       <c r="H359" s="3">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I359" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>508</v>
       </c>
@@ -11715,8 +12796,11 @@
       <c r="H360" s="3">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I360" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>467</v>
       </c>
@@ -11738,8 +12822,11 @@
       <c r="H361" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I361" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>469</v>
       </c>
@@ -11761,8 +12848,11 @@
       <c r="H362" s="3">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I362" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>480</v>
       </c>
@@ -11784,8 +12874,11 @@
       <c r="H363" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I363" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>479</v>
       </c>
@@ -11807,8 +12900,11 @@
       <c r="H364" s="3">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I364" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>509</v>
       </c>
@@ -11830,8 +12926,11 @@
       <c r="H365" s="3">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I365" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>475</v>
       </c>
@@ -11853,8 +12952,11 @@
       <c r="H366" s="3">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I366" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>473</v>
       </c>
@@ -11876,8 +12978,11 @@
       <c r="H367" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I367" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>483</v>
       </c>
@@ -11899,8 +13004,11 @@
       <c r="H368" s="3">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I368" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>511</v>
       </c>
@@ -11925,8 +13033,11 @@
       <c r="H369" s="3">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I369" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>512</v>
       </c>
@@ -11951,8 +13062,11 @@
       <c r="H370" s="3">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I370" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>513</v>
       </c>
@@ -11977,8 +13091,11 @@
       <c r="H371" s="3">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I371" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>515</v>
       </c>
@@ -12003,8 +13120,11 @@
       <c r="H372" s="3">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I372" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>517</v>
       </c>
@@ -12029,8 +13149,11 @@
       <c r="H373" s="3">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I373" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>518</v>
       </c>
@@ -12052,8 +13175,11 @@
       <c r="H374" s="3">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I374" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>520</v>
       </c>
@@ -12075,8 +13201,11 @@
       <c r="H375" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I375" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>521</v>
       </c>
@@ -12101,8 +13230,11 @@
       <c r="H376" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I376" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>524</v>
       </c>
@@ -12127,8 +13259,11 @@
       <c r="H377" s="3">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I377" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>525</v>
       </c>
@@ -12150,8 +13285,11 @@
       <c r="H378" s="3">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I378" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>527</v>
       </c>
@@ -12173,8 +13311,11 @@
       <c r="H379" s="3">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I379" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>529</v>
       </c>
@@ -12196,8 +13337,11 @@
       <c r="H380" s="3">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I380" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>530</v>
       </c>
@@ -12219,8 +13363,11 @@
       <c r="H381" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I381" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>531</v>
       </c>
@@ -12242,8 +13389,11 @@
       <c r="H382" s="3">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I382" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>533</v>
       </c>
@@ -12265,8 +13415,11 @@
       <c r="H383" s="3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I383" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>534</v>
       </c>
@@ -12288,8 +13441,11 @@
       <c r="H384" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I384" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>535</v>
       </c>
@@ -12311,8 +13467,11 @@
       <c r="H385" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I385" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>537</v>
       </c>
@@ -12337,8 +13496,11 @@
       <c r="H386" s="3">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I386" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>513</v>
       </c>
@@ -12363,8 +13525,11 @@
       <c r="H387" s="3">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I387" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>538</v>
       </c>
@@ -12389,8 +13554,11 @@
       <c r="H388" s="3">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I388" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>512</v>
       </c>
@@ -12415,8 +13583,11 @@
       <c r="H389" s="3">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I389" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>540</v>
       </c>
@@ -12441,8 +13612,11 @@
       <c r="H390" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I390" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>515</v>
       </c>
@@ -12467,8 +13641,11 @@
       <c r="H391" s="3">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I391" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>541</v>
       </c>
@@ -12493,8 +13670,11 @@
       <c r="H392" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I392" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>520</v>
       </c>
@@ -12516,8 +13696,11 @@
       <c r="H393" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I393" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>542</v>
       </c>
@@ -12542,8 +13725,11 @@
       <c r="H394" s="3">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I394" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>544</v>
       </c>
@@ -12568,8 +13754,11 @@
       <c r="H395" s="3">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I395" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>546</v>
       </c>
@@ -12594,8 +13783,11 @@
       <c r="H396" s="3">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I396" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>547</v>
       </c>
@@ -12620,8 +13812,11 @@
       <c r="H397" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I397" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>549</v>
       </c>
@@ -12646,8 +13841,11 @@
       <c r="H398" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I398" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>372</v>
       </c>
@@ -12669,8 +13867,11 @@
       <c r="H399" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I399" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>550</v>
       </c>
@@ -12692,8 +13893,11 @@
       <c r="H400" s="3">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I400" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>552</v>
       </c>
@@ -12715,8 +13919,11 @@
       <c r="H401" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I401" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>554</v>
       </c>
@@ -12741,8 +13948,11 @@
       <c r="H402" s="3">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I402" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>555</v>
       </c>
@@ -12767,8 +13977,11 @@
       <c r="H403" s="3">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I403" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>556</v>
       </c>
@@ -12793,8 +14006,11 @@
       <c r="H404" s="3">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I404" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>558</v>
       </c>
@@ -12816,8 +14032,11 @@
       <c r="H405" s="3">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I405" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>560</v>
       </c>
@@ -12839,8 +14058,11 @@
       <c r="H406" s="3">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I406" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>562</v>
       </c>
@@ -12862,8 +14084,11 @@
       <c r="H407" s="3">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I407" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>563</v>
       </c>
@@ -12888,8 +14113,11 @@
       <c r="H408" s="3">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I408" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>564</v>
       </c>
@@ -12911,8 +14139,11 @@
       <c r="H409" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I409" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>565</v>
       </c>
@@ -12934,8 +14165,11 @@
       <c r="H410" s="3">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I410" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>567</v>
       </c>
@@ -12957,8 +14191,11 @@
       <c r="H411" s="3">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I411" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>568</v>
       </c>
@@ -12980,8 +14217,11 @@
       <c r="H412" s="3">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I412" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>570</v>
       </c>
@@ -13006,8 +14246,11 @@
       <c r="H413" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I413" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>571</v>
       </c>
@@ -13029,8 +14272,11 @@
       <c r="H414" s="3">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I414" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>572</v>
       </c>
@@ -13055,8 +14301,11 @@
       <c r="H415" s="3">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I415" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>573</v>
       </c>
@@ -13078,8 +14327,11 @@
       <c r="H416" s="3">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I416" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>574</v>
       </c>
@@ -13104,8 +14356,11 @@
       <c r="H417" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I417" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>567</v>
       </c>
@@ -13127,8 +14382,11 @@
       <c r="H418" s="3">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I418" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>572</v>
       </c>
@@ -13153,8 +14411,11 @@
       <c r="H419" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I419" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>570</v>
       </c>
@@ -13179,8 +14440,11 @@
       <c r="H420" s="3">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I420" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>578</v>
       </c>
@@ -13202,8 +14466,11 @@
       <c r="H421" s="3">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I421" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>571</v>
       </c>
@@ -13225,8 +14492,11 @@
       <c r="H422" s="3">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I422" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>575</v>
       </c>
@@ -13251,8 +14521,11 @@
       <c r="H423" s="3">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I423" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>579</v>
       </c>
@@ -13277,8 +14550,11 @@
       <c r="H424" s="3">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I424" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>576</v>
       </c>
@@ -13303,8 +14579,11 @@
       <c r="H425" s="3">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I425" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>581</v>
       </c>
@@ -13326,8 +14605,11 @@
       <c r="H426" s="3">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I426" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>582</v>
       </c>
@@ -13349,8 +14631,11 @@
       <c r="H427" s="3">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I427" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>583</v>
       </c>
@@ -13372,8 +14657,11 @@
       <c r="H428" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I428" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>584</v>
       </c>
@@ -13398,8 +14686,11 @@
       <c r="H429" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I429" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>586</v>
       </c>
@@ -13424,8 +14715,11 @@
       <c r="H430" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I430" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>588</v>
       </c>
@@ -13447,8 +14741,11 @@
       <c r="H431" s="3">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I431" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>589</v>
       </c>
@@ -13470,8 +14767,11 @@
       <c r="H432" s="3">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I432" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>591</v>
       </c>
@@ -13493,8 +14793,11 @@
       <c r="H433" s="3">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I433" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>594</v>
       </c>
@@ -13519,8 +14822,11 @@
       <c r="H434" s="3">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I434" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>595</v>
       </c>
@@ -13542,8 +14848,11 @@
       <c r="H435" s="3">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I435" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>597</v>
       </c>
@@ -13568,8 +14877,11 @@
       <c r="H436" s="3">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I436" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>599</v>
       </c>
@@ -13591,8 +14903,11 @@
       <c r="H437" s="3">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I437" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>601</v>
       </c>
@@ -13617,8 +14932,11 @@
       <c r="H438" s="3">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I438" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>602</v>
       </c>
@@ -13643,8 +14961,11 @@
       <c r="H439" s="3">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I439" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>603</v>
       </c>
@@ -13663,8 +14984,11 @@
       <c r="H440" s="3">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I440" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>604</v>
       </c>
@@ -13689,8 +15013,11 @@
       <c r="H441" s="3">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I441" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>606</v>
       </c>
@@ -13712,8 +15039,11 @@
       <c r="H442" s="3">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I442" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>608</v>
       </c>
@@ -13735,8 +15065,11 @@
       <c r="H443" s="3">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I443" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>610</v>
       </c>
@@ -13758,8 +15091,11 @@
       <c r="H444" s="3">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I444" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>612</v>
       </c>
@@ -13781,8 +15117,11 @@
       <c r="H445" s="3">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I445" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>613</v>
       </c>
@@ -13804,8 +15143,11 @@
       <c r="H446" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I446" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>614</v>
       </c>
@@ -13824,8 +15166,11 @@
       <c r="H447" s="3">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I447" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>615</v>
       </c>
@@ -13847,8 +15192,11 @@
       <c r="H448" s="3">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I448" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>617</v>
       </c>
@@ -13870,8 +15218,11 @@
       <c r="H449" s="3">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I449" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>503</v>
       </c>
@@ -13896,8 +15247,11 @@
       <c r="H450" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I450" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>619</v>
       </c>
@@ -13922,8 +15276,11 @@
       <c r="H451" s="3">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I451" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>620</v>
       </c>
@@ -13948,8 +15305,11 @@
       <c r="H452" s="3">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I452" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>508</v>
       </c>
@@ -13968,8 +15328,11 @@
       <c r="H453" s="3">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I453" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>621</v>
       </c>
@@ -13991,8 +15354,11 @@
       <c r="H454" s="3">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I454" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>623</v>
       </c>
@@ -14014,8 +15380,11 @@
       <c r="H455" s="3">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I455" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>625</v>
       </c>
@@ -14037,8 +15406,11 @@
       <c r="H456" s="3">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I456" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>626</v>
       </c>
@@ -14063,8 +15435,11 @@
       <c r="H457" s="3">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I457" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>628</v>
       </c>
@@ -14089,8 +15464,11 @@
       <c r="H458" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I458" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>629</v>
       </c>
@@ -14115,8 +15493,11 @@
       <c r="H459" s="3">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I459" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>631</v>
       </c>
@@ -14141,8 +15522,11 @@
       <c r="H460" s="3">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I460" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>633</v>
       </c>
@@ -14167,8 +15551,11 @@
       <c r="H461" s="3">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I461" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>634</v>
       </c>
@@ -14193,8 +15580,11 @@
       <c r="H462" s="3">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I462" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>636</v>
       </c>
@@ -14219,8 +15609,11 @@
       <c r="H463" s="3">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I463" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>638</v>
       </c>
@@ -14245,8 +15638,11 @@
       <c r="H464" s="3">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I464" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>639</v>
       </c>
@@ -14271,8 +15667,11 @@
       <c r="H465" s="3">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I465" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>641</v>
       </c>
@@ -14297,8 +15696,11 @@
       <c r="H466" s="3">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I466" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>643</v>
       </c>
@@ -14323,8 +15725,11 @@
       <c r="H467" s="3">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I467" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>644</v>
       </c>
@@ -14346,8 +15751,11 @@
       <c r="H468" s="3">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I468" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>646</v>
       </c>
@@ -14372,8 +15780,11 @@
       <c r="H469" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I469" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>647</v>
       </c>
@@ -14398,8 +15809,11 @@
       <c r="H470" s="3">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I470" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>648</v>
       </c>
@@ -14418,8 +15832,11 @@
       <c r="H471" s="3">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I471" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>649</v>
       </c>
@@ -14444,8 +15861,11 @@
       <c r="H472" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I472" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>651</v>
       </c>
@@ -14467,8 +15887,11 @@
       <c r="H473" s="3">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I473" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>653</v>
       </c>
@@ -14490,8 +15913,11 @@
       <c r="H474" s="3">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I474" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>655</v>
       </c>
@@ -14513,8 +15939,11 @@
       <c r="H475" s="3">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I475" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>657</v>
       </c>
@@ -14539,8 +15968,11 @@
       <c r="H476" s="3">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I476" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>659</v>
       </c>
@@ -14562,8 +15994,11 @@
       <c r="H477" s="3">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I477" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>661</v>
       </c>
@@ -14585,8 +16020,11 @@
       <c r="H478" s="3">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I478" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>663</v>
       </c>
@@ -14608,8 +16046,11 @@
       <c r="H479" s="3">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I479" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>664</v>
       </c>
@@ -14634,8 +16075,11 @@
       <c r="H480" s="3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I480" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>666</v>
       </c>
@@ -14657,8 +16101,11 @@
       <c r="H481" s="3">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I481" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>669</v>
       </c>
@@ -14683,8 +16130,11 @@
       <c r="H482" s="3">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I482" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>670</v>
       </c>
@@ -14709,8 +16159,11 @@
       <c r="H483" s="3">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I483" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>671</v>
       </c>
@@ -14735,8 +16188,11 @@
       <c r="H484" s="3">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I484" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>672</v>
       </c>
@@ -14761,8 +16217,11 @@
       <c r="H485" s="3">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I485" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>674</v>
       </c>
@@ -14787,8 +16246,11 @@
       <c r="H486" s="3">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I486" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>675</v>
       </c>
@@ -14813,8 +16275,11 @@
       <c r="H487" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I487" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>677</v>
       </c>
@@ -14839,8 +16304,11 @@
       <c r="H488" s="3">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I488" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>678</v>
       </c>
@@ -14865,8 +16333,11 @@
       <c r="H489" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I489" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>653</v>
       </c>
@@ -14888,8 +16359,11 @@
       <c r="H490" s="3">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I490" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>657</v>
       </c>
@@ -14914,8 +16388,11 @@
       <c r="H491" s="3">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I491" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>663</v>
       </c>
@@ -14937,8 +16414,11 @@
       <c r="H492" s="3">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I492" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>664</v>
       </c>
@@ -14963,8 +16443,11 @@
       <c r="H493" s="3">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I493" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>661</v>
       </c>
@@ -14986,8 +16469,11 @@
       <c r="H494" s="3">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I494" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>666</v>
       </c>
@@ -15009,8 +16495,11 @@
       <c r="H495" s="3">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I495" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>659</v>
       </c>
@@ -15032,8 +16521,11 @@
       <c r="H496" s="3">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I496" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>679</v>
       </c>
@@ -15055,8 +16547,11 @@
       <c r="H497" s="3">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I497" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>681</v>
       </c>
@@ -15078,8 +16573,11 @@
       <c r="H498" s="3">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I498" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>683</v>
       </c>
@@ -15104,8 +16602,11 @@
       <c r="H499" s="3">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I499" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>684</v>
       </c>
@@ -15130,8 +16631,11 @@
       <c r="H500" s="3">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I500" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>686</v>
       </c>
@@ -15153,8 +16657,11 @@
       <c r="H501" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I501" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>687</v>
       </c>
@@ -15179,8 +16686,11 @@
       <c r="H502" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I502" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>689</v>
       </c>
@@ -15202,8 +16712,11 @@
       <c r="H503" s="3">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I503" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>690</v>
       </c>
@@ -15225,8 +16738,11 @@
       <c r="H504" s="3">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I504" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>691</v>
       </c>
@@ -15251,8 +16767,11 @@
       <c r="H505" s="3">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I505" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>631</v>
       </c>
@@ -15277,8 +16796,11 @@
       <c r="H506" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I506" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>693</v>
       </c>
@@ -15303,8 +16825,11 @@
       <c r="H507" s="3">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I507" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>695</v>
       </c>
@@ -15329,8 +16854,11 @@
       <c r="H508" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I508" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>633</v>
       </c>
@@ -15355,8 +16883,11 @@
       <c r="H509" s="3">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I509" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>634</v>
       </c>
@@ -15381,8 +16912,11 @@
       <c r="H510" s="3">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I510" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>696</v>
       </c>
@@ -15407,8 +16941,11 @@
       <c r="H511" s="3">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I511" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>638</v>
       </c>
@@ -15433,8 +16970,11 @@
       <c r="H512" s="3">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I512" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>697</v>
       </c>
@@ -15459,8 +16999,11 @@
       <c r="H513" s="3">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I513" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>698</v>
       </c>
@@ -15485,8 +17028,11 @@
       <c r="H514" s="3">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I514" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>699</v>
       </c>
@@ -15511,8 +17057,11 @@
       <c r="H515" s="3">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I515" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>700</v>
       </c>
@@ -15537,8 +17086,11 @@
       <c r="H516" s="3">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I516" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>702</v>
       </c>
@@ -15563,8 +17115,11 @@
       <c r="H517" s="3">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I517" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>704</v>
       </c>
@@ -15589,8 +17144,11 @@
       <c r="H518" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I518" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>705</v>
       </c>
@@ -15615,8 +17173,11 @@
       <c r="H519" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I519" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>706</v>
       </c>
@@ -15641,8 +17202,11 @@
       <c r="H520" s="3">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I520" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>708</v>
       </c>
@@ -15664,8 +17228,11 @@
       <c r="H521" s="3">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I521" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>710</v>
       </c>
@@ -15690,8 +17257,11 @@
       <c r="H522" s="3">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I522" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>712</v>
       </c>
@@ -15716,8 +17286,11 @@
       <c r="H523" s="3">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I523" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>714</v>
       </c>
@@ -15742,8 +17315,11 @@
       <c r="H524" s="3">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I524" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>716</v>
       </c>
@@ -15768,8 +17344,11 @@
       <c r="H525" s="3">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I525" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>717</v>
       </c>
@@ -15794,8 +17373,11 @@
       <c r="H526" s="3">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I526" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>719</v>
       </c>
@@ -15820,8 +17402,11 @@
       <c r="H527" s="3">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I527" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>720</v>
       </c>
@@ -15846,8 +17431,11 @@
       <c r="H528" s="3">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I528" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>721</v>
       </c>
@@ -15872,8 +17460,11 @@
       <c r="H529" s="3">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I529" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>725</v>
       </c>
@@ -15895,8 +17486,11 @@
       <c r="H530" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I530" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>727</v>
       </c>
@@ -15918,8 +17512,11 @@
       <c r="H531" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I531" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>729</v>
       </c>
@@ -15941,8 +17538,11 @@
       <c r="H532" s="3">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I532" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>730</v>
       </c>
@@ -15964,8 +17564,11 @@
       <c r="H533" s="3">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I533" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>732</v>
       </c>
@@ -15987,8 +17590,11 @@
       <c r="H534" s="3">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I534" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>733</v>
       </c>
@@ -16010,8 +17616,11 @@
       <c r="H535" s="3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I535" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>735</v>
       </c>
@@ -16033,8 +17642,11 @@
       <c r="H536" s="3">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I536" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>737</v>
       </c>
@@ -16056,8 +17668,11 @@
       <c r="H537" s="3">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I537" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>738</v>
       </c>
@@ -16082,8 +17697,11 @@
       <c r="H538" s="3">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I538" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>739</v>
       </c>
@@ -16108,8 +17726,11 @@
       <c r="H539" s="3">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I539" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>604</v>
       </c>
@@ -16134,8 +17755,11 @@
       <c r="H540" s="3">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I540" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>740</v>
       </c>
@@ -16160,8 +17784,11 @@
       <c r="H541" s="3">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I541" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>742</v>
       </c>
@@ -16186,8 +17813,11 @@
       <c r="H542" s="3">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I542" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>605</v>
       </c>
@@ -16212,8 +17842,11 @@
       <c r="H543" s="3">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I543" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>744</v>
       </c>
@@ -16238,8 +17871,11 @@
       <c r="H544" s="3">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I544" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>746</v>
       </c>
@@ -16264,8 +17900,11 @@
       <c r="H545" s="3">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I545" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>714</v>
       </c>
@@ -16290,8 +17929,11 @@
       <c r="H546" s="3">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I546" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>712</v>
       </c>
@@ -16316,8 +17958,11 @@
       <c r="H547" s="3">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I547" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>719</v>
       </c>
@@ -16342,8 +17987,11 @@
       <c r="H548" s="3">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I548" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>717</v>
       </c>
@@ -16368,8 +18016,11 @@
       <c r="H549" s="3">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I549" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>748</v>
       </c>
@@ -16394,8 +18045,11 @@
       <c r="H550" s="3">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I550" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>722</v>
       </c>
@@ -16417,8 +18071,11 @@
       <c r="H551" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I551" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>720</v>
       </c>
@@ -16443,8 +18100,11 @@
       <c r="H552" s="3">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I552" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>724</v>
       </c>
@@ -16469,8 +18129,11 @@
       <c r="H553" s="3">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I553" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>721</v>
       </c>
@@ -16495,8 +18158,11 @@
       <c r="H554" s="3">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I554" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>751</v>
       </c>
@@ -16521,8 +18187,11 @@
       <c r="H555" s="3">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I555" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>753</v>
       </c>
@@ -16544,8 +18213,11 @@
       <c r="H556" s="3">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I556" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>755</v>
       </c>
@@ -16567,8 +18239,11 @@
       <c r="H557" s="3">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I557" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>756</v>
       </c>
@@ -16593,8 +18268,11 @@
       <c r="H558" s="3">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I558" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>757</v>
       </c>
@@ -16619,8 +18297,11 @@
       <c r="H559" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I559" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>758</v>
       </c>
@@ -16645,8 +18326,11 @@
       <c r="H560" s="3">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I560" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>760</v>
       </c>
@@ -16668,8 +18352,11 @@
       <c r="H561" s="3">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I561" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>761</v>
       </c>
@@ -16691,8 +18378,11 @@
       <c r="H562" s="3">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I562" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>763</v>
       </c>
@@ -16717,8 +18407,11 @@
       <c r="H563" s="3">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I563" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>764</v>
       </c>
@@ -16740,8 +18433,11 @@
       <c r="H564" s="3">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I564" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>766</v>
       </c>
@@ -16766,8 +18462,11 @@
       <c r="H565" s="3">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I565" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>768</v>
       </c>
@@ -16789,8 +18488,11 @@
       <c r="H566" s="3">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I566" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>769</v>
       </c>
@@ -16812,8 +18514,11 @@
       <c r="H567" s="3">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I567" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>771</v>
       </c>
@@ -16838,8 +18543,11 @@
       <c r="H568" s="3">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I568" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>773</v>
       </c>
@@ -16861,8 +18569,11 @@
       <c r="H569" s="3">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I569" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>775</v>
       </c>
@@ -16884,8 +18595,11 @@
       <c r="H570" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I570" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>777</v>
       </c>
@@ -16910,8 +18624,11 @@
       <c r="H571" s="3">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I571" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>779</v>
       </c>
@@ -16936,8 +18653,11 @@
       <c r="H572" s="3">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I572" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>780</v>
       </c>
@@ -16959,8 +18679,11 @@
       <c r="H573" s="3">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I573" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>782</v>
       </c>
@@ -16982,8 +18705,11 @@
       <c r="H574" s="3">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I574" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>783</v>
       </c>
@@ -17005,8 +18731,11 @@
       <c r="H575" s="3">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I575" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>785</v>
       </c>
@@ -17028,8 +18757,11 @@
       <c r="H576" s="3">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I576" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>786</v>
       </c>
@@ -17051,8 +18783,11 @@
       <c r="H577" s="3">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I577" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>787</v>
       </c>
@@ -17074,8 +18809,11 @@
       <c r="H578" s="3">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I578" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>702</v>
       </c>
@@ -17100,8 +18838,11 @@
       <c r="H579" s="3">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I579" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>706</v>
       </c>
@@ -17126,8 +18867,11 @@
       <c r="H580" s="3">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I580" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>709</v>
       </c>
@@ -17149,8 +18893,11 @@
       <c r="H581" s="3">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I581" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>789</v>
       </c>
@@ -17175,8 +18922,11 @@
       <c r="H582" s="3">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I582" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>791</v>
       </c>
@@ -17198,8 +18948,11 @@
       <c r="H583" s="3">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I583" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>705</v>
       </c>
@@ -17224,8 +18977,11 @@
       <c r="H584" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I584" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>793</v>
       </c>
@@ -17247,8 +19003,11 @@
       <c r="H585" s="3">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I585" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>795</v>
       </c>
@@ -17273,8 +19032,11 @@
       <c r="H586" s="3">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I586" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>796</v>
       </c>
@@ -17299,8 +19061,11 @@
       <c r="H587" s="3">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I587" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>797</v>
       </c>
@@ -17325,8 +19090,11 @@
       <c r="H588" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I588" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>798</v>
       </c>
@@ -17348,8 +19116,11 @@
       <c r="H589" s="3">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I589" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>800</v>
       </c>
@@ -17371,8 +19142,11 @@
       <c r="H590" s="3">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I590" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>802</v>
       </c>
@@ -17397,8 +19171,11 @@
       <c r="H591" s="3">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I591" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>803</v>
       </c>
@@ -17423,8 +19200,11 @@
       <c r="H592" s="3">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I592" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>804</v>
       </c>
@@ -17446,8 +19226,11 @@
       <c r="H593" s="3">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I593" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>806</v>
       </c>
@@ -17469,8 +19252,11 @@
       <c r="H594" s="3">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I594" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>807</v>
       </c>
@@ -17495,8 +19281,11 @@
       <c r="H595" s="3">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I595" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>808</v>
       </c>
@@ -17521,8 +19310,11 @@
       <c r="H596" s="3">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I596" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>810</v>
       </c>
@@ -17547,8 +19339,11 @@
       <c r="H597" s="3">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I597" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>811</v>
       </c>
@@ -17573,8 +19368,11 @@
       <c r="H598" s="3">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I598" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>812</v>
       </c>
@@ -17599,8 +19397,11 @@
       <c r="H599" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I599" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>814</v>
       </c>
@@ -17625,8 +19426,11 @@
       <c r="H600" s="3">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I600" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>815</v>
       </c>
@@ -17648,8 +19452,11 @@
       <c r="H601" s="3">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I601" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>816</v>
       </c>
@@ -17671,8 +19478,11 @@
       <c r="H602" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I602" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>818</v>
       </c>
@@ -17694,8 +19504,11 @@
       <c r="H603" s="3">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I603" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>819</v>
       </c>
@@ -17717,8 +19530,11 @@
       <c r="H604" s="3">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I604" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>821</v>
       </c>
@@ -17740,8 +19556,11 @@
       <c r="H605" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I605" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>822</v>
       </c>
@@ -17763,8 +19582,11 @@
       <c r="H606" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I606" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>824</v>
       </c>
@@ -17786,8 +19608,11 @@
       <c r="H607" s="3">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I607" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>826</v>
       </c>
@@ -17809,8 +19634,11 @@
       <c r="H608" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I608" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>827</v>
       </c>
@@ -17832,8 +19660,11 @@
       <c r="H609" s="3">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I609" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>828</v>
       </c>
@@ -17855,8 +19686,11 @@
       <c r="H610" s="3">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I610" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>830</v>
       </c>
@@ -17882,7 +19716,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>831</v>
       </c>
@@ -17908,7 +19742,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>833</v>
       </c>
@@ -17934,7 +19768,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>834</v>
       </c>
@@ -17960,7 +19794,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>835</v>
       </c>
@@ -17983,7 +19817,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>837</v>
       </c>
@@ -18006,7 +19840,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>838</v>
       </c>
@@ -18032,7 +19866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>840</v>
       </c>
@@ -18055,7 +19889,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>842</v>
       </c>
@@ -18078,7 +19912,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>844</v>
       </c>
@@ -18101,7 +19935,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>846</v>
       </c>
@@ -18124,7 +19958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>848</v>
       </c>
@@ -18147,7 +19981,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>850</v>
       </c>
@@ -18173,7 +20007,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>852</v>
       </c>
@@ -18196,7 +20030,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>854</v>
       </c>
@@ -18219,7 +20053,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>856</v>
       </c>
@@ -18242,7 +20076,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>857</v>
       </c>
@@ -18268,7 +20102,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>858</v>
       </c>
@@ -18294,7 +20128,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>859</v>
       </c>
@@ -18320,7 +20154,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>861</v>
       </c>
@@ -18343,7 +20177,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>863</v>
       </c>
@@ -18369,7 +20203,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>864</v>
       </c>
@@ -18392,7 +20226,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>866</v>
       </c>
@@ -18418,7 +20252,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>867</v>
       </c>
@@ -18441,7 +20275,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>869</v>
       </c>
@@ -18464,7 +20298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>870</v>
       </c>
@@ -18490,7 +20324,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>872</v>
       </c>
@@ -18516,7 +20350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>873</v>
       </c>
@@ -18539,7 +20373,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>874</v>
       </c>
@@ -18562,7 +20396,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>876</v>
       </c>
@@ -18585,7 +20419,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>878</v>
       </c>
@@ -18608,7 +20442,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>880</v>
       </c>

--- a/Team_Data.xlsx
+++ b/Team_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9638f6de01d1f561/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\baldies_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B443767-FCC5-4D6D-980F-FECE7377E7FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851FFCE9-34DB-4E72-974E-1CA93A81E6A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8F814BBD-7CD2-497A-95AA-D41F6F5F9FEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F814BBD-7CD2-497A-95AA-D41F6F5F9FEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="915">
   <si>
     <t>Player</t>
   </si>
@@ -2763,13 +2763,13 @@
     <t>Pts.</t>
   </si>
   <si>
-    <t>National Title Winner</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Winner</t>
   </si>
 </sst>
 </file>
@@ -3128,24 +3128,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3CF456-A86A-4863-B0DC-1800DC4D3A57}">
   <dimension ref="A1:I642"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A583" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I611" sqref="I611"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="7" style="3" customWidth="1"/>
     <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3171,10 +3171,10 @@
         <v>911</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3195,10 +3195,10 @@
         <v>16.8</v>
       </c>
       <c r="I2" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3219,10 +3219,10 @@
         <v>11.5</v>
       </c>
       <c r="I3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3243,10 +3243,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I4" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3267,10 +3267,10 @@
         <v>9.5</v>
       </c>
       <c r="I5" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3291,10 +3291,10 @@
         <v>12.1</v>
       </c>
       <c r="I6" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3315,10 +3315,10 @@
         <v>5.9</v>
       </c>
       <c r="I7" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3342,10 +3342,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I8" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3369,10 +3369,10 @@
         <v>2.9</v>
       </c>
       <c r="I9" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3396,10 +3396,10 @@
         <v>14.1</v>
       </c>
       <c r="I10" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3423,10 +3423,10 @@
         <v>11.8</v>
       </c>
       <c r="I11" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3450,10 +3450,10 @@
         <v>10.1</v>
       </c>
       <c r="I12" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3474,10 +3474,10 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3501,10 +3501,10 @@
         <v>8.6</v>
       </c>
       <c r="I14" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3528,10 +3528,10 @@
         <v>8.1</v>
       </c>
       <c r="I15" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3552,10 +3552,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I16" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -3579,10 +3579,10 @@
         <v>4.8</v>
       </c>
       <c r="I17" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -3606,10 +3606,10 @@
         <v>16.7</v>
       </c>
       <c r="I18" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -3630,10 +3630,10 @@
         <v>13.6</v>
       </c>
       <c r="I19" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -3657,10 +3657,10 @@
         <v>12.3</v>
       </c>
       <c r="I20" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -3681,10 +3681,10 @@
         <v>10.1</v>
       </c>
       <c r="I21" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -3708,10 +3708,10 @@
         <v>8.4</v>
       </c>
       <c r="I22" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3732,10 +3732,10 @@
         <v>7.4</v>
       </c>
       <c r="I23" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3756,10 +3756,10 @@
         <v>4.5</v>
       </c>
       <c r="I24" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3774,10 +3774,10 @@
         <v>1.5</v>
       </c>
       <c r="I25" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3798,10 +3798,10 @@
         <v>11.8</v>
       </c>
       <c r="I26" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -3822,10 +3822,10 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I27" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3846,10 +3846,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="I28" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -3870,10 +3870,10 @@
         <v>6.1</v>
       </c>
       <c r="I29" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -3894,10 +3894,10 @@
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -3918,10 +3918,10 @@
         <v>5.2</v>
       </c>
       <c r="I31" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3942,10 +3942,10 @@
         <v>4.5</v>
       </c>
       <c r="I32" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -3966,10 +3966,10 @@
         <v>3.7</v>
       </c>
       <c r="I33" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -3993,10 +3993,10 @@
         <v>21.6</v>
       </c>
       <c r="I34" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -4017,10 +4017,10 @@
         <v>19.899999999999999</v>
       </c>
       <c r="I35" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -4044,10 +4044,10 @@
         <v>12.6</v>
       </c>
       <c r="I36" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -4068,10 +4068,10 @@
         <v>12.3</v>
       </c>
       <c r="I37" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -4095,10 +4095,10 @@
         <v>13.3</v>
       </c>
       <c r="I38" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -4122,10 +4122,10 @@
         <v>7.2</v>
       </c>
       <c r="I39" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -4149,10 +4149,10 @@
         <v>2.5</v>
       </c>
       <c r="I40" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -4173,10 +4173,10 @@
         <v>1.6</v>
       </c>
       <c r="I41" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -4200,10 +4200,10 @@
         <v>16.2</v>
       </c>
       <c r="I42" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -4227,10 +4227,10 @@
         <v>15.6</v>
       </c>
       <c r="I43" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -4254,10 +4254,10 @@
         <v>11.3</v>
       </c>
       <c r="I44" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -4281,10 +4281,10 @@
         <v>10.9</v>
       </c>
       <c r="I45" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -4305,10 +4305,10 @@
         <v>13.2</v>
       </c>
       <c r="I46" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -4332,10 +4332,10 @@
         <v>5.5</v>
       </c>
       <c r="I47" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -4356,10 +4356,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="I48" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -4380,10 +4380,10 @@
         <v>2.6</v>
       </c>
       <c r="I49" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -4407,10 +4407,10 @@
         <v>14.7</v>
       </c>
       <c r="I50" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -4431,10 +4431,10 @@
         <v>13.5</v>
       </c>
       <c r="I51" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -4455,10 +4455,10 @@
         <v>13.8</v>
       </c>
       <c r="I52" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -4482,10 +4482,10 @@
         <v>10.8</v>
       </c>
       <c r="I53" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -4509,10 +4509,10 @@
         <v>7.4</v>
       </c>
       <c r="I54" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -4533,10 +4533,10 @@
         <v>5.4</v>
       </c>
       <c r="I55" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -4560,10 +4560,10 @@
         <v>4.7</v>
       </c>
       <c r="I56" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -4584,10 +4584,10 @@
         <v>4.7</v>
       </c>
       <c r="I57" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -4608,10 +4608,10 @@
         <v>18.2</v>
       </c>
       <c r="I58" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -4635,10 +4635,10 @@
         <v>15.6</v>
       </c>
       <c r="I59" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -4659,10 +4659,10 @@
         <v>12.2</v>
       </c>
       <c r="I60" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -4683,10 +4683,10 @@
         <v>9.6</v>
       </c>
       <c r="I61" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -4710,10 +4710,10 @@
         <v>6.9</v>
       </c>
       <c r="I62" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -4734,10 +4734,10 @@
         <v>6.6</v>
       </c>
       <c r="I63" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -4761,10 +4761,10 @@
         <v>4.8</v>
       </c>
       <c r="I64" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -4785,10 +4785,10 @@
         <v>3.6</v>
       </c>
       <c r="I65" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -4811,10 +4811,10 @@
         <v>20.399999999999999</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -4840,10 +4840,10 @@
         <v>15.2</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -4869,10 +4869,10 @@
         <v>12</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -4895,10 +4895,10 @@
         <v>11.1</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -4921,10 +4921,10 @@
         <v>8</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -4947,10 +4947,10 @@
         <v>7.1</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -4976,10 +4976,10 @@
         <v>5.6</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -5005,10 +5005,10 @@
         <v>15</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -5031,10 +5031,10 @@
         <v>11.9</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -5060,10 +5060,10 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -5086,10 +5086,10 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -5112,10 +5112,10 @@
         <v>8.1</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -5141,10 +5141,10 @@
         <v>7.7</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -5170,10 +5170,10 @@
         <v>5.9</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -5196,10 +5196,10 @@
         <v>2.6</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -5225,10 +5225,10 @@
         <v>19.8</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -5251,10 +5251,10 @@
         <v>15.6</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -5277,10 +5277,10 @@
         <v>14.8</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -5306,10 +5306,10 @@
         <v>13.4</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -5332,10 +5332,10 @@
         <v>7.9</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>105</v>
       </c>
@@ -5358,10 +5358,10 @@
         <v>7.1</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -5384,10 +5384,10 @@
         <v>8.1</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>107</v>
       </c>
@@ -5410,10 +5410,10 @@
         <v>1.9</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -5439,10 +5439,10 @@
         <v>16.5</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>115</v>
       </c>
@@ -5465,10 +5465,10 @@
         <v>16</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -5491,10 +5491,10 @@
         <v>14.6</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -5517,10 +5517,10 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>121</v>
       </c>
@@ -5543,10 +5543,10 @@
         <v>7.6</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>122</v>
       </c>
@@ -5569,10 +5569,10 @@
         <v>6.7</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>124</v>
       </c>
@@ -5592,10 +5592,10 @@
         <v>4.8</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>125</v>
       </c>
@@ -5618,10 +5618,10 @@
         <v>1.7</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>142</v>
       </c>
@@ -5647,10 +5647,10 @@
         <v>22.2</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>144</v>
       </c>
@@ -5670,10 +5670,10 @@
         <v>14.8</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>145</v>
       </c>
@@ -5699,10 +5699,10 @@
         <v>13.3</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>147</v>
       </c>
@@ -5728,10 +5728,10 @@
         <v>11</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>148</v>
       </c>
@@ -5757,10 +5757,10 @@
         <v>9</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>149</v>
       </c>
@@ -5783,10 +5783,10 @@
         <v>4.3</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>151</v>
       </c>
@@ -5812,10 +5812,10 @@
         <v>3.8</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>153</v>
       </c>
@@ -5838,10 +5838,10 @@
         <v>3.3</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>100</v>
       </c>
@@ -5864,10 +5864,10 @@
         <v>18.5</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -5890,10 +5890,10 @@
         <v>17.3</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -5916,10 +5916,10 @@
         <v>15.9</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -5942,10 +5942,10 @@
         <v>8.9</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -5968,10 +5968,10 @@
         <v>14.8</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>156</v>
       </c>
@@ -5994,10 +5994,10 @@
         <v>6</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -6020,10 +6020,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -6046,10 +6046,10 @@
         <v>2.9</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>158</v>
       </c>
@@ -6075,10 +6075,10 @@
         <v>15</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>159</v>
       </c>
@@ -6104,10 +6104,10 @@
         <v>14.8</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>161</v>
       </c>
@@ -6133,10 +6133,10 @@
         <v>11.1</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>163</v>
       </c>
@@ -6162,10 +6162,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>164</v>
       </c>
@@ -6185,10 +6185,10 @@
         <v>7.9</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>165</v>
       </c>
@@ -6214,10 +6214,10 @@
         <v>6.7</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>167</v>
       </c>
@@ -6237,10 +6237,10 @@
         <v>6.2</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>168</v>
       </c>
@@ -6263,10 +6263,10 @@
         <v>4.3</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>171</v>
       </c>
@@ -6289,10 +6289,10 @@
         <v>21.5</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>173</v>
       </c>
@@ -6318,10 +6318,10 @@
         <v>15.4</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>175</v>
       </c>
@@ -6344,10 +6344,10 @@
         <v>11.8</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>176</v>
       </c>
@@ -6373,10 +6373,10 @@
         <v>10.1</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>178</v>
       </c>
@@ -6399,10 +6399,10 @@
         <v>6.7</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>179</v>
       </c>
@@ -6425,10 +6425,10 @@
         <v>5.8</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>180</v>
       </c>
@@ -6451,10 +6451,10 @@
         <v>2.6</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>181</v>
       </c>
@@ -6477,10 +6477,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>183</v>
       </c>
@@ -6503,10 +6503,10 @@
         <v>18.5</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>184</v>
       </c>
@@ -6529,10 +6529,10 @@
         <v>17.600000000000001</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>185</v>
       </c>
@@ -6558,10 +6558,10 @@
         <v>11.2</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>187</v>
       </c>
@@ -6584,10 +6584,10 @@
         <v>8.9</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>188</v>
       </c>
@@ -6610,10 +6610,10 @@
         <v>8.9</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>189</v>
       </c>
@@ -6639,10 +6639,10 @@
         <v>6.3</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>191</v>
       </c>
@@ -6665,10 +6665,10 @@
         <v>5.9</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>192</v>
       </c>
@@ -6688,10 +6688,10 @@
         <v>2.4</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>193</v>
       </c>
@@ -6717,10 +6717,10 @@
         <v>14.9</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>195</v>
       </c>
@@ -6743,10 +6743,10 @@
         <v>12.5</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>196</v>
       </c>
@@ -6772,10 +6772,10 @@
         <v>11</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>198</v>
       </c>
@@ -6801,10 +6801,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>199</v>
       </c>
@@ -6824,10 +6824,10 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>200</v>
       </c>
@@ -6850,10 +6850,10 @@
         <v>9.6</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>201</v>
       </c>
@@ -6876,10 +6876,10 @@
         <v>5.9</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>203</v>
       </c>
@@ -6902,10 +6902,10 @@
         <v>3.4</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>206</v>
       </c>
@@ -6928,10 +6928,10 @@
         <v>15.9</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>207</v>
       </c>
@@ -6954,10 +6954,10 @@
         <v>15.1</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>208</v>
       </c>
@@ -6980,10 +6980,10 @@
         <v>12.6</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>209</v>
       </c>
@@ -7006,10 +7006,10 @@
         <v>12.6</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>49</v>
       </c>
@@ -7032,10 +7032,10 @@
         <v>10</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>210</v>
       </c>
@@ -7058,10 +7058,10 @@
         <v>7</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -7087,10 +7087,10 @@
         <v>3</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>52</v>
       </c>
@@ -7113,10 +7113,10 @@
         <v>1.9</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>213</v>
       </c>
@@ -7136,10 +7136,10 @@
         <v>16</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>214</v>
       </c>
@@ -7159,10 +7159,10 @@
         <v>15.1</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>215</v>
       </c>
@@ -7182,10 +7182,10 @@
         <v>12.4</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>216</v>
       </c>
@@ -7208,10 +7208,10 @@
         <v>12.2</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>217</v>
       </c>
@@ -7234,10 +7234,10 @@
         <v>7.2</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>219</v>
       </c>
@@ -7260,10 +7260,10 @@
         <v>4.8</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>221</v>
       </c>
@@ -7286,10 +7286,10 @@
         <v>2.9</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>223</v>
       </c>
@@ -7309,10 +7309,10 @@
         <v>2.8</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>225</v>
       </c>
@@ -7335,10 +7335,10 @@
         <v>17.5</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>226</v>
       </c>
@@ -7361,10 +7361,10 @@
         <v>16</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>227</v>
       </c>
@@ -7387,10 +7387,10 @@
         <v>13.1</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>228</v>
       </c>
@@ -7413,10 +7413,10 @@
         <v>12.9</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>229</v>
       </c>
@@ -7439,10 +7439,10 @@
         <v>11.3</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>230</v>
       </c>
@@ -7465,10 +7465,10 @@
         <v>5.5</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>231</v>
       </c>
@@ -7494,10 +7494,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>232</v>
       </c>
@@ -7517,10 +7517,10 @@
         <v>3.9</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>235</v>
       </c>
@@ -7540,10 +7540,10 @@
         <v>15.9</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>236</v>
       </c>
@@ -7569,10 +7569,10 @@
         <v>13.3</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>238</v>
       </c>
@@ -7598,10 +7598,10 @@
         <v>12.5</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>240</v>
       </c>
@@ -7624,10 +7624,10 @@
         <v>12</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>241</v>
       </c>
@@ -7653,10 +7653,10 @@
         <v>10.1</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>243</v>
       </c>
@@ -7679,10 +7679,10 @@
         <v>4.5</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>244</v>
       </c>
@@ -7708,10 +7708,10 @@
         <v>3.3</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>246</v>
       </c>
@@ -7737,10 +7737,10 @@
         <v>2.6</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>249</v>
       </c>
@@ -7763,10 +7763,10 @@
         <v>15.7</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>250</v>
       </c>
@@ -7789,10 +7789,10 @@
         <v>15.2</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>252</v>
       </c>
@@ -7818,10 +7818,10 @@
         <v>14.4</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>254</v>
       </c>
@@ -7844,10 +7844,10 @@
         <v>10.4</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>256</v>
       </c>
@@ -7870,10 +7870,10 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>257</v>
       </c>
@@ -7899,10 +7899,10 @@
         <v>5.2</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>259</v>
       </c>
@@ -7922,10 +7922,10 @@
         <v>5.5</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>260</v>
       </c>
@@ -7951,10 +7951,10 @@
         <v>3.9</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>262</v>
       </c>
@@ -7977,10 +7977,10 @@
         <v>14.1</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>263</v>
       </c>
@@ -8003,10 +8003,10 @@
         <v>13.2</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>264</v>
       </c>
@@ -8032,10 +8032,10 @@
         <v>12.3</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>266</v>
       </c>
@@ -8058,10 +8058,10 @@
         <v>10.9</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>267</v>
       </c>
@@ -8087,10 +8087,10 @@
         <v>9.5</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>269</v>
       </c>
@@ -8113,10 +8113,10 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>270</v>
       </c>
@@ -8142,10 +8142,10 @@
         <v>3.5</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>272</v>
       </c>
@@ -8171,10 +8171,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>273</v>
       </c>
@@ -8200,10 +8200,10 @@
         <v>14.2</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>274</v>
       </c>
@@ -8226,10 +8226,10 @@
         <v>13.3</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>276</v>
       </c>
@@ -8255,10 +8255,10 @@
         <v>12.7</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>278</v>
       </c>
@@ -8281,10 +8281,10 @@
         <v>11.3</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>279</v>
       </c>
@@ -8307,10 +8307,10 @@
         <v>10.9</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>281</v>
       </c>
@@ -8336,10 +8336,10 @@
         <v>5.9</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>282</v>
       </c>
@@ -8359,10 +8359,10 @@
         <v>3.8</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>283</v>
       </c>
@@ -8385,10 +8385,10 @@
         <v>3.1</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>284</v>
       </c>
@@ -8414,10 +8414,10 @@
         <v>15.8</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>285</v>
       </c>
@@ -8440,10 +8440,10 @@
         <v>13.5</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>286</v>
       </c>
@@ -8463,10 +8463,10 @@
         <v>9.1</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>287</v>
       </c>
@@ -8489,10 +8489,10 @@
         <v>7.6</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>288</v>
       </c>
@@ -8512,10 +8512,10 @@
         <v>7</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>289</v>
       </c>
@@ -8541,10 +8541,10 @@
         <v>5.5</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>291</v>
       </c>
@@ -8567,10 +8567,10 @@
         <v>3.4</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>293</v>
       </c>
@@ -8593,10 +8593,10 @@
         <v>3.6</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>297</v>
       </c>
@@ -8622,10 +8622,10 @@
         <v>18.600000000000001</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>299</v>
       </c>
@@ -8648,10 +8648,10 @@
         <v>16.8</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>301</v>
       </c>
@@ -8677,10 +8677,10 @@
         <v>11.4</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>303</v>
       </c>
@@ -8700,10 +8700,10 @@
         <v>12.3</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>304</v>
       </c>
@@ -8726,10 +8726,10 @@
         <v>6.7</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>305</v>
       </c>
@@ -8752,10 +8752,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>306</v>
       </c>
@@ -8778,10 +8778,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>307</v>
       </c>
@@ -8804,10 +8804,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>309</v>
       </c>
@@ -8830,10 +8830,10 @@
         <v>13.7</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>311</v>
       </c>
@@ -8856,10 +8856,10 @@
         <v>12.6</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>313</v>
       </c>
@@ -8882,10 +8882,10 @@
         <v>11.9</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>315</v>
       </c>
@@ -8908,10 +8908,10 @@
         <v>11.8</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>316</v>
       </c>
@@ -8934,10 +8934,10 @@
         <v>11</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>317</v>
       </c>
@@ -8960,10 +8960,10 @@
         <v>3.4</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>319</v>
       </c>
@@ -8986,10 +8986,10 @@
         <v>2.8</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>320</v>
       </c>
@@ -9012,10 +9012,10 @@
         <v>1.8</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>274</v>
       </c>
@@ -9038,10 +9038,10 @@
         <v>13.3</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>278</v>
       </c>
@@ -9064,10 +9064,10 @@
         <v>13.2</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>276</v>
       </c>
@@ -9093,10 +9093,10 @@
         <v>13.2</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>273</v>
       </c>
@@ -9122,10 +9122,10 @@
         <v>12</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>279</v>
       </c>
@@ -9148,10 +9148,10 @@
         <v>10.3</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>281</v>
       </c>
@@ -9177,10 +9177,10 @@
         <v>6.2</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>282</v>
       </c>
@@ -9200,10 +9200,10 @@
         <v>5.7</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>322</v>
       </c>
@@ -9229,10 +9229,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>326</v>
       </c>
@@ -9258,10 +9258,10 @@
         <v>15.7</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>327</v>
       </c>
@@ -9284,10 +9284,10 @@
         <v>12.7</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>329</v>
       </c>
@@ -9313,10 +9313,10 @@
         <v>11.3</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>330</v>
       </c>
@@ -9342,10 +9342,10 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>332</v>
       </c>
@@ -9371,10 +9371,10 @@
         <v>8.5</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>334</v>
       </c>
@@ -9400,10 +9400,10 @@
         <v>7.6</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>336</v>
       </c>
@@ -9426,10 +9426,10 @@
         <v>5.7</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>337</v>
       </c>
@@ -9455,10 +9455,10 @@
         <v>3.7</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>284</v>
       </c>
@@ -9484,10 +9484,10 @@
         <v>16.899999999999999</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>296</v>
       </c>
@@ -9513,10 +9513,10 @@
         <v>13.3</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>289</v>
       </c>
@@ -9542,10 +9542,10 @@
         <v>12.7</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>286</v>
       </c>
@@ -9565,10 +9565,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>294</v>
       </c>
@@ -9591,10 +9591,10 @@
         <v>6.6</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>291</v>
       </c>
@@ -9617,10 +9617,10 @@
         <v>4.8</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>293</v>
       </c>
@@ -9643,10 +9643,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>340</v>
       </c>
@@ -9669,10 +9669,10 @@
         <v>3.4</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>345</v>
       </c>
@@ -9695,10 +9695,10 @@
         <v>14.3</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>347</v>
       </c>
@@ -9721,10 +9721,10 @@
         <v>12.9</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>349</v>
       </c>
@@ -9747,10 +9747,10 @@
         <v>11.4</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>351</v>
       </c>
@@ -9776,10 +9776,10 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>352</v>
       </c>
@@ -9802,10 +9802,10 @@
         <v>9.1</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>353</v>
       </c>
@@ -9831,10 +9831,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>355</v>
       </c>
@@ -9857,10 +9857,10 @@
         <v>7.5</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>357</v>
       </c>
@@ -9886,10 +9886,10 @@
         <v>2.9</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>359</v>
       </c>
@@ -9915,10 +9915,10 @@
         <v>12.8</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>360</v>
       </c>
@@ -9944,10 +9944,10 @@
         <v>13.3</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>362</v>
       </c>
@@ -9973,10 +9973,10 @@
         <v>12.8</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>364</v>
       </c>
@@ -10002,10 +10002,10 @@
         <v>11.2</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>365</v>
       </c>
@@ -10031,10 +10031,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>366</v>
       </c>
@@ -10060,10 +10060,10 @@
         <v>7.3</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>367</v>
       </c>
@@ -10089,10 +10089,10 @@
         <v>7.1</v>
       </c>
       <c r="I263" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>369</v>
       </c>
@@ -10118,10 +10118,10 @@
         <v>2.8</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>375</v>
       </c>
@@ -10147,10 +10147,10 @@
         <v>18.100000000000001</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>376</v>
       </c>
@@ -10176,10 +10176,10 @@
         <v>14.9</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>377</v>
       </c>
@@ -10205,10 +10205,10 @@
         <v>8.6</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>379</v>
       </c>
@@ -10231,10 +10231,10 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>381</v>
       </c>
@@ -10260,10 +10260,10 @@
         <v>6.9</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>382</v>
       </c>
@@ -10286,10 +10286,10 @@
         <v>6.9</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>383</v>
       </c>
@@ -10315,10 +10315,10 @@
         <v>5.9</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>385</v>
       </c>
@@ -10344,10 +10344,10 @@
         <v>5</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>388</v>
       </c>
@@ -10373,10 +10373,10 @@
         <v>17.5</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>340</v>
       </c>
@@ -10399,10 +10399,10 @@
         <v>12.7</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>289</v>
       </c>
@@ -10428,10 +10428,10 @@
         <v>14.5</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>296</v>
       </c>
@@ -10457,10 +10457,10 @@
         <v>12.2</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>286</v>
       </c>
@@ -10480,10 +10480,10 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>293</v>
       </c>
@@ -10506,10 +10506,10 @@
         <v>2.9</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>294</v>
       </c>
@@ -10532,10 +10532,10 @@
         <v>3.1</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>342</v>
       </c>
@@ -10561,10 +10561,10 @@
         <v>2.8</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>390</v>
       </c>
@@ -10590,10 +10590,10 @@
         <v>22.6</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>392</v>
       </c>
@@ -10619,10 +10619,10 @@
         <v>16.600000000000001</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>394</v>
       </c>
@@ -10648,10 +10648,10 @@
         <v>11.5</v>
       </c>
       <c r="I283" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>396</v>
       </c>
@@ -10677,10 +10677,10 @@
         <v>12.7</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>398</v>
       </c>
@@ -10706,10 +10706,10 @@
         <v>8.4</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>400</v>
       </c>
@@ -10735,10 +10735,10 @@
         <v>6.9</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>402</v>
       </c>
@@ -10761,10 +10761,10 @@
         <v>4.3</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>234</v>
       </c>
@@ -10790,10 +10790,10 @@
         <v>3.1</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>390</v>
       </c>
@@ -10819,10 +10819,10 @@
         <v>20.7</v>
       </c>
       <c r="I289" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>392</v>
       </c>
@@ -10848,10 +10848,10 @@
         <v>15.8</v>
       </c>
       <c r="I290" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>396</v>
       </c>
@@ -10877,10 +10877,10 @@
         <v>16.600000000000001</v>
       </c>
       <c r="I291" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>394</v>
       </c>
@@ -10906,10 +10906,10 @@
         <v>13.1</v>
       </c>
       <c r="I292" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>398</v>
       </c>
@@ -10935,10 +10935,10 @@
         <v>10.6</v>
       </c>
       <c r="I293" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>408</v>
       </c>
@@ -10964,10 +10964,10 @@
         <v>6.7</v>
       </c>
       <c r="I294" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>405</v>
       </c>
@@ -10993,10 +10993,10 @@
         <v>2.6</v>
       </c>
       <c r="I295" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>403</v>
       </c>
@@ -11022,10 +11022,10 @@
         <v>4</v>
       </c>
       <c r="I296" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>409</v>
       </c>
@@ -11051,10 +11051,10 @@
         <v>14.7</v>
       </c>
       <c r="I297" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>410</v>
       </c>
@@ -11080,10 +11080,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I298" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>412</v>
       </c>
@@ -11106,10 +11106,10 @@
         <v>10.4</v>
       </c>
       <c r="I299" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>414</v>
       </c>
@@ -11135,10 +11135,10 @@
         <v>8.6</v>
       </c>
       <c r="I300" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>415</v>
       </c>
@@ -11164,10 +11164,10 @@
         <v>8.4</v>
       </c>
       <c r="I301" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>417</v>
       </c>
@@ -11193,10 +11193,10 @@
         <v>5.6</v>
       </c>
       <c r="I302" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>419</v>
       </c>
@@ -11219,10 +11219,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>420</v>
       </c>
@@ -11248,10 +11248,10 @@
         <v>3.3</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>422</v>
       </c>
@@ -11277,10 +11277,10 @@
         <v>14.7</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>424</v>
       </c>
@@ -11306,10 +11306,10 @@
         <v>13.6</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>426</v>
       </c>
@@ -11332,10 +11332,10 @@
         <v>13.6</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>427</v>
       </c>
@@ -11361,10 +11361,10 @@
         <v>8.9</v>
       </c>
       <c r="I308" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>429</v>
       </c>
@@ -11390,10 +11390,10 @@
         <v>13.2</v>
       </c>
       <c r="I309" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>431</v>
       </c>
@@ -11416,10 +11416,10 @@
         <v>7.2</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>433</v>
       </c>
@@ -11445,10 +11445,10 @@
         <v>8.5</v>
       </c>
       <c r="I311" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>434</v>
       </c>
@@ -11471,10 +11471,10 @@
         <v>3.8</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>439</v>
       </c>
@@ -11497,10 +11497,10 @@
         <v>16.100000000000001</v>
       </c>
       <c r="I313" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>440</v>
       </c>
@@ -11526,10 +11526,10 @@
         <v>15.2</v>
       </c>
       <c r="I314" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>442</v>
       </c>
@@ -11555,10 +11555,10 @@
         <v>10.8</v>
       </c>
       <c r="I315" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>443</v>
       </c>
@@ -11584,10 +11584,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="I316" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>445</v>
       </c>
@@ -11610,10 +11610,10 @@
         <v>9</v>
       </c>
       <c r="I317" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>446</v>
       </c>
@@ -11636,10 +11636,10 @@
         <v>7.1</v>
       </c>
       <c r="I318" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>448</v>
       </c>
@@ -11662,10 +11662,10 @@
         <v>5.6</v>
       </c>
       <c r="I319" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>449</v>
       </c>
@@ -11691,10 +11691,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I320" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>451</v>
       </c>
@@ -11720,10 +11720,10 @@
         <v>18.2</v>
       </c>
       <c r="I321" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>453</v>
       </c>
@@ -11749,10 +11749,10 @@
         <v>17.7</v>
       </c>
       <c r="I322" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>455</v>
       </c>
@@ -11778,10 +11778,10 @@
         <v>17.399999999999999</v>
       </c>
       <c r="I323" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>457</v>
       </c>
@@ -11807,10 +11807,10 @@
         <v>5.6</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>459</v>
       </c>
@@ -11836,10 +11836,10 @@
         <v>5.2</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>461</v>
       </c>
@@ -11865,10 +11865,10 @@
         <v>4.8</v>
       </c>
       <c r="I326" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>463</v>
       </c>
@@ -11891,10 +11891,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I327" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>465</v>
       </c>
@@ -11920,10 +11920,10 @@
         <v>3.7</v>
       </c>
       <c r="I328" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>466</v>
       </c>
@@ -11946,10 +11946,10 @@
         <v>15.5</v>
       </c>
       <c r="I329" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>467</v>
       </c>
@@ -11972,10 +11972,10 @@
         <v>14.1</v>
       </c>
       <c r="I330" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>469</v>
       </c>
@@ -11998,10 +11998,10 @@
         <v>11.6</v>
       </c>
       <c r="I331" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>471</v>
       </c>
@@ -12024,10 +12024,10 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="I332" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>473</v>
       </c>
@@ -12050,10 +12050,10 @@
         <v>6</v>
       </c>
       <c r="I333" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>475</v>
       </c>
@@ -12076,10 +12076,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="I334" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>477</v>
       </c>
@@ -12102,10 +12102,10 @@
         <v>2.9</v>
       </c>
       <c r="I335" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>479</v>
       </c>
@@ -12128,10 +12128,10 @@
         <v>2.8</v>
       </c>
       <c r="I336" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>409</v>
       </c>
@@ -12157,10 +12157,10 @@
         <v>14.8</v>
       </c>
       <c r="I337" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>414</v>
       </c>
@@ -12186,10 +12186,10 @@
         <v>11.3</v>
       </c>
       <c r="I338" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>410</v>
       </c>
@@ -12215,10 +12215,10 @@
         <v>11.3</v>
       </c>
       <c r="I339" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>420</v>
       </c>
@@ -12244,10 +12244,10 @@
         <v>9.9</v>
       </c>
       <c r="I340" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>415</v>
       </c>
@@ -12273,10 +12273,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="I341" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>417</v>
       </c>
@@ -12302,10 +12302,10 @@
         <v>6.4</v>
       </c>
       <c r="I342" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>421</v>
       </c>
@@ -12331,10 +12331,10 @@
         <v>5.6</v>
       </c>
       <c r="I343" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>484</v>
       </c>
@@ -12360,10 +12360,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I344" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>485</v>
       </c>
@@ -12389,10 +12389,10 @@
         <v>17.2</v>
       </c>
       <c r="I345" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>487</v>
       </c>
@@ -12418,10 +12418,10 @@
         <v>13.5</v>
       </c>
       <c r="I346" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>488</v>
       </c>
@@ -12447,10 +12447,10 @@
         <v>12</v>
       </c>
       <c r="I347" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>490</v>
       </c>
@@ -12473,10 +12473,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="I348" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>491</v>
       </c>
@@ -12499,10 +12499,10 @@
         <v>6.6</v>
       </c>
       <c r="I349" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>493</v>
       </c>
@@ -12525,10 +12525,10 @@
         <v>3.7</v>
       </c>
       <c r="I350" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>495</v>
       </c>
@@ -12551,10 +12551,10 @@
         <v>3.1</v>
       </c>
       <c r="I351" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>497</v>
       </c>
@@ -12577,10 +12577,10 @@
         <v>2.7</v>
       </c>
       <c r="I352" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>427</v>
       </c>
@@ -12606,10 +12606,10 @@
         <v>23.5</v>
       </c>
       <c r="I353" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>499</v>
       </c>
@@ -12635,10 +12635,10 @@
         <v>11.1</v>
       </c>
       <c r="I354" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>501</v>
       </c>
@@ -12664,10 +12664,10 @@
         <v>9.6</v>
       </c>
       <c r="I355" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>503</v>
       </c>
@@ -12693,10 +12693,10 @@
         <v>7.8</v>
       </c>
       <c r="I356" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>505</v>
       </c>
@@ -12722,10 +12722,10 @@
         <v>6.3</v>
       </c>
       <c r="I357" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>506</v>
       </c>
@@ -12751,10 +12751,10 @@
         <v>5.6</v>
       </c>
       <c r="I358" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>437</v>
       </c>
@@ -12774,10 +12774,10 @@
         <v>2.9</v>
       </c>
       <c r="I359" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>508</v>
       </c>
@@ -12797,10 +12797,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="I360" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>467</v>
       </c>
@@ -12823,10 +12823,10 @@
         <v>16</v>
       </c>
       <c r="I361" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>469</v>
       </c>
@@ -12849,10 +12849,10 @@
         <v>16.399999999999999</v>
       </c>
       <c r="I362" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>480</v>
       </c>
@@ -12875,10 +12875,10 @@
         <v>8.5</v>
       </c>
       <c r="I363" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>479</v>
       </c>
@@ -12901,10 +12901,10 @@
         <v>8.1</v>
       </c>
       <c r="I364" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>509</v>
       </c>
@@ -12927,10 +12927,10 @@
         <v>5.8</v>
       </c>
       <c r="I365" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>475</v>
       </c>
@@ -12953,10 +12953,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="I366" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>473</v>
       </c>
@@ -12979,10 +12979,10 @@
         <v>5</v>
       </c>
       <c r="I367" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>483</v>
       </c>
@@ -13005,10 +13005,10 @@
         <v>3.9</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>511</v>
       </c>
@@ -13034,10 +13034,10 @@
         <v>17.3</v>
       </c>
       <c r="I369" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>512</v>
       </c>
@@ -13063,10 +13063,10 @@
         <v>15.7</v>
       </c>
       <c r="I370" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>513</v>
       </c>
@@ -13092,10 +13092,10 @@
         <v>12.3</v>
       </c>
       <c r="I371" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>515</v>
       </c>
@@ -13121,10 +13121,10 @@
         <v>10.9</v>
       </c>
       <c r="I372" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>517</v>
       </c>
@@ -13150,10 +13150,10 @@
         <v>8.6</v>
       </c>
       <c r="I373" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>518</v>
       </c>
@@ -13176,10 +13176,10 @@
         <v>7.6</v>
       </c>
       <c r="I374" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>520</v>
       </c>
@@ -13202,10 +13202,10 @@
         <v>1.5</v>
       </c>
       <c r="I375" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>521</v>
       </c>
@@ -13231,10 +13231,10 @@
         <v>0.8</v>
       </c>
       <c r="I376" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>524</v>
       </c>
@@ -13260,10 +13260,10 @@
         <v>15.7</v>
       </c>
       <c r="I377" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>525</v>
       </c>
@@ -13286,10 +13286,10 @@
         <v>14.3</v>
       </c>
       <c r="I378" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>527</v>
       </c>
@@ -13312,10 +13312,10 @@
         <v>10.4</v>
       </c>
       <c r="I379" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>529</v>
       </c>
@@ -13338,10 +13338,10 @@
         <v>11.5</v>
       </c>
       <c r="I380" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>530</v>
       </c>
@@ -13364,10 +13364,10 @@
         <v>7</v>
       </c>
       <c r="I381" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>531</v>
       </c>
@@ -13390,10 +13390,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="I382" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>533</v>
       </c>
@@ -13416,10 +13416,10 @@
         <v>3.5</v>
       </c>
       <c r="I383" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>534</v>
       </c>
@@ -13442,10 +13442,10 @@
         <v>3</v>
       </c>
       <c r="I384" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>535</v>
       </c>
@@ -13468,10 +13468,10 @@
         <v>2.5</v>
       </c>
       <c r="I385" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>537</v>
       </c>
@@ -13497,10 +13497,10 @@
         <v>14.2</v>
       </c>
       <c r="I386" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>513</v>
       </c>
@@ -13526,10 +13526,10 @@
         <v>13.7</v>
       </c>
       <c r="I387" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>538</v>
       </c>
@@ -13555,10 +13555,10 @@
         <v>11.9</v>
       </c>
       <c r="I388" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>512</v>
       </c>
@@ -13584,10 +13584,10 @@
         <v>12.3</v>
       </c>
       <c r="I389" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>540</v>
       </c>
@@ -13613,10 +13613,10 @@
         <v>10</v>
       </c>
       <c r="I390" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>515</v>
       </c>
@@ -13642,10 +13642,10 @@
         <v>9.9</v>
       </c>
       <c r="I391" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>541</v>
       </c>
@@ -13671,10 +13671,10 @@
         <v>5</v>
       </c>
       <c r="I392" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>520</v>
       </c>
@@ -13697,10 +13697,10 @@
         <v>0.8</v>
       </c>
       <c r="I393" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>542</v>
       </c>
@@ -13726,10 +13726,10 @@
         <v>17.7</v>
       </c>
       <c r="I394" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>544</v>
       </c>
@@ -13755,10 +13755,10 @@
         <v>16.600000000000001</v>
       </c>
       <c r="I395" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>546</v>
       </c>
@@ -13784,10 +13784,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I396" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>547</v>
       </c>
@@ -13813,10 +13813,10 @@
         <v>9</v>
       </c>
       <c r="I397" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>549</v>
       </c>
@@ -13842,10 +13842,10 @@
         <v>8.5</v>
       </c>
       <c r="I398" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>372</v>
       </c>
@@ -13868,10 +13868,10 @@
         <v>5.5</v>
       </c>
       <c r="I399" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>550</v>
       </c>
@@ -13894,10 +13894,10 @@
         <v>3.4</v>
       </c>
       <c r="I400" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>552</v>
       </c>
@@ -13920,10 +13920,10 @@
         <v>1.2</v>
       </c>
       <c r="I401" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>554</v>
       </c>
@@ -13949,10 +13949,10 @@
         <v>17.5</v>
       </c>
       <c r="I402" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>555</v>
       </c>
@@ -13978,10 +13978,10 @@
         <v>15.9</v>
       </c>
       <c r="I403" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>556</v>
       </c>
@@ -14007,10 +14007,10 @@
         <v>14.5</v>
       </c>
       <c r="I404" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>558</v>
       </c>
@@ -14033,10 +14033,10 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I405" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>560</v>
       </c>
@@ -14059,10 +14059,10 @@
         <v>6.8</v>
       </c>
       <c r="I406" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>562</v>
       </c>
@@ -14085,10 +14085,10 @@
         <v>3.4</v>
       </c>
       <c r="I407" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>563</v>
       </c>
@@ -14114,10 +14114,10 @@
         <v>2.1</v>
       </c>
       <c r="I408" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>564</v>
       </c>
@@ -14140,10 +14140,10 @@
         <v>3</v>
       </c>
       <c r="I409" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>565</v>
       </c>
@@ -14166,10 +14166,10 @@
         <v>12.6</v>
       </c>
       <c r="I410" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>567</v>
       </c>
@@ -14192,10 +14192,10 @@
         <v>11.5</v>
       </c>
       <c r="I411" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>568</v>
       </c>
@@ -14218,10 +14218,10 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="I412" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>570</v>
       </c>
@@ -14247,10 +14247,10 @@
         <v>9.5</v>
       </c>
       <c r="I413" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>571</v>
       </c>
@@ -14273,10 +14273,10 @@
         <v>9.1</v>
       </c>
       <c r="I414" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>572</v>
       </c>
@@ -14302,10 +14302,10 @@
         <v>9.1</v>
       </c>
       <c r="I415" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>573</v>
       </c>
@@ -14328,10 +14328,10 @@
         <v>3.3</v>
       </c>
       <c r="I416" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>574</v>
       </c>
@@ -14357,10 +14357,10 @@
         <v>4</v>
       </c>
       <c r="I417" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>567</v>
       </c>
@@ -14383,10 +14383,10 @@
         <v>18.7</v>
       </c>
       <c r="I418" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>572</v>
       </c>
@@ -14412,10 +14412,10 @@
         <v>10</v>
       </c>
       <c r="I419" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>570</v>
       </c>
@@ -14441,10 +14441,10 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="I420" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>578</v>
       </c>
@@ -14467,10 +14467,10 @@
         <v>8.1</v>
       </c>
       <c r="I421" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>571</v>
       </c>
@@ -14493,10 +14493,10 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="I422" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>575</v>
       </c>
@@ -14522,10 +14522,10 @@
         <v>7.6</v>
       </c>
       <c r="I423" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>579</v>
       </c>
@@ -14551,10 +14551,10 @@
         <v>5.7</v>
       </c>
       <c r="I424" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>576</v>
       </c>
@@ -14580,10 +14580,10 @@
         <v>4.5</v>
       </c>
       <c r="I425" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>581</v>
       </c>
@@ -14606,10 +14606,10 @@
         <v>18.600000000000001</v>
       </c>
       <c r="I426" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>582</v>
       </c>
@@ -14632,10 +14632,10 @@
         <v>14.5</v>
       </c>
       <c r="I427" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>583</v>
       </c>
@@ -14658,10 +14658,10 @@
         <v>11</v>
       </c>
       <c r="I428" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>584</v>
       </c>
@@ -14687,10 +14687,10 @@
         <v>11</v>
       </c>
       <c r="I429" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>586</v>
       </c>
@@ -14716,10 +14716,10 @@
         <v>7.5</v>
       </c>
       <c r="I430" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>588</v>
       </c>
@@ -14742,10 +14742,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="I431" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>589</v>
       </c>
@@ -14768,10 +14768,10 @@
         <v>2.7</v>
       </c>
       <c r="I432" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>591</v>
       </c>
@@ -14794,10 +14794,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="I433" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>594</v>
       </c>
@@ -14823,10 +14823,10 @@
         <v>14.5</v>
       </c>
       <c r="I434" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>595</v>
       </c>
@@ -14849,10 +14849,10 @@
         <v>13.6</v>
       </c>
       <c r="I435" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>597</v>
       </c>
@@ -14878,10 +14878,10 @@
         <v>11.9</v>
       </c>
       <c r="I436" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>599</v>
       </c>
@@ -14904,10 +14904,10 @@
         <v>13.3</v>
       </c>
       <c r="I437" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>601</v>
       </c>
@@ -14933,10 +14933,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I438" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>602</v>
       </c>
@@ -14962,10 +14962,10 @@
         <v>3.9</v>
       </c>
       <c r="I439" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>603</v>
       </c>
@@ -14985,10 +14985,10 @@
         <v>3.7</v>
       </c>
       <c r="I440" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>604</v>
       </c>
@@ -15014,10 +15014,10 @@
         <v>3.4</v>
       </c>
       <c r="I441" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>606</v>
       </c>
@@ -15040,10 +15040,10 @@
         <v>13.9</v>
       </c>
       <c r="I442" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>608</v>
       </c>
@@ -15066,10 +15066,10 @@
         <v>10.6</v>
       </c>
       <c r="I443" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>610</v>
       </c>
@@ -15092,10 +15092,10 @@
         <v>12.6</v>
       </c>
       <c r="I444" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>612</v>
       </c>
@@ -15118,10 +15118,10 @@
         <v>7.4</v>
       </c>
       <c r="I445" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>613</v>
       </c>
@@ -15144,10 +15144,10 @@
         <v>6.5</v>
       </c>
       <c r="I446" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>614</v>
       </c>
@@ -15167,10 +15167,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="I447" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>615</v>
       </c>
@@ -15193,10 +15193,10 @@
         <v>4.3</v>
       </c>
       <c r="I448" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>617</v>
       </c>
@@ -15219,10 +15219,10 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="I449" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>503</v>
       </c>
@@ -15248,10 +15248,10 @@
         <v>18</v>
       </c>
       <c r="I450" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>619</v>
       </c>
@@ -15277,10 +15277,10 @@
         <v>13.1</v>
       </c>
       <c r="I451" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>620</v>
       </c>
@@ -15306,10 +15306,10 @@
         <v>12.1</v>
       </c>
       <c r="I452" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>508</v>
       </c>
@@ -15329,10 +15329,10 @@
         <v>8.4</v>
       </c>
       <c r="I453" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>621</v>
       </c>
@@ -15355,10 +15355,10 @@
         <v>6.1</v>
       </c>
       <c r="I454" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>623</v>
       </c>
@@ -15381,10 +15381,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I455" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>625</v>
       </c>
@@ -15407,10 +15407,10 @@
         <v>3.3</v>
       </c>
       <c r="I456" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>626</v>
       </c>
@@ -15436,10 +15436,10 @@
         <v>3.8</v>
       </c>
       <c r="I457" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>628</v>
       </c>
@@ -15465,10 +15465,10 @@
         <v>15</v>
       </c>
       <c r="I458" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>629</v>
       </c>
@@ -15494,10 +15494,10 @@
         <v>14.3</v>
       </c>
       <c r="I459" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>631</v>
       </c>
@@ -15523,10 +15523,10 @@
         <v>13.7</v>
       </c>
       <c r="I460" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>633</v>
       </c>
@@ -15552,10 +15552,10 @@
         <v>10.9</v>
       </c>
       <c r="I461" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>634</v>
       </c>
@@ -15581,10 +15581,10 @@
         <v>6.8</v>
       </c>
       <c r="I462" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>636</v>
       </c>
@@ -15610,10 +15610,10 @@
         <v>5.9</v>
       </c>
       <c r="I463" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>638</v>
       </c>
@@ -15639,10 +15639,10 @@
         <v>5.2</v>
       </c>
       <c r="I464" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>639</v>
       </c>
@@ -15668,10 +15668,10 @@
         <v>2.4</v>
       </c>
       <c r="I465" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>641</v>
       </c>
@@ -15697,10 +15697,10 @@
         <v>13.8</v>
       </c>
       <c r="I466" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>643</v>
       </c>
@@ -15726,10 +15726,10 @@
         <v>12.4</v>
       </c>
       <c r="I467" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>644</v>
       </c>
@@ -15752,10 +15752,10 @@
         <v>13.1</v>
       </c>
       <c r="I468" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>646</v>
       </c>
@@ -15781,10 +15781,10 @@
         <v>11</v>
       </c>
       <c r="I469" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>647</v>
       </c>
@@ -15810,10 +15810,10 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="I470" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>648</v>
       </c>
@@ -15833,10 +15833,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="I471" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>649</v>
       </c>
@@ -15862,10 +15862,10 @@
         <v>5.5</v>
       </c>
       <c r="I472" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>651</v>
       </c>
@@ -15888,10 +15888,10 @@
         <v>2.4</v>
       </c>
       <c r="I473" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>653</v>
       </c>
@@ -15914,10 +15914,10 @@
         <v>13.9</v>
       </c>
       <c r="I474" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>655</v>
       </c>
@@ -15940,10 +15940,10 @@
         <v>12.8</v>
       </c>
       <c r="I475" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>657</v>
       </c>
@@ -15969,10 +15969,10 @@
         <v>12.4</v>
       </c>
       <c r="I476" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>659</v>
       </c>
@@ -15995,10 +15995,10 @@
         <v>10.7</v>
       </c>
       <c r="I477" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>661</v>
       </c>
@@ -16021,10 +16021,10 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I478" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>663</v>
       </c>
@@ -16047,10 +16047,10 @@
         <v>7.7</v>
       </c>
       <c r="I479" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>664</v>
       </c>
@@ -16076,10 +16076,10 @@
         <v>3.5</v>
       </c>
       <c r="I480" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>666</v>
       </c>
@@ -16102,10 +16102,10 @@
         <v>2.8</v>
       </c>
       <c r="I481" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>669</v>
       </c>
@@ -16131,10 +16131,10 @@
         <v>17.3</v>
       </c>
       <c r="I482" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>670</v>
       </c>
@@ -16160,10 +16160,10 @@
         <v>15.3</v>
       </c>
       <c r="I483" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>671</v>
       </c>
@@ -16189,10 +16189,10 @@
         <v>12.6</v>
       </c>
       <c r="I484" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>672</v>
       </c>
@@ -16218,10 +16218,10 @@
         <v>11.8</v>
       </c>
       <c r="I485" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>674</v>
       </c>
@@ -16247,10 +16247,10 @@
         <v>6.1</v>
       </c>
       <c r="I486" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>675</v>
       </c>
@@ -16276,10 +16276,10 @@
         <v>6</v>
       </c>
       <c r="I487" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>677</v>
       </c>
@@ -16305,10 +16305,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I488" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>678</v>
       </c>
@@ -16334,10 +16334,10 @@
         <v>7.5</v>
       </c>
       <c r="I489" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>653</v>
       </c>
@@ -16360,10 +16360,10 @@
         <v>18.8</v>
       </c>
       <c r="I490" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>657</v>
       </c>
@@ -16389,10 +16389,10 @@
         <v>13.9</v>
       </c>
       <c r="I491" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>663</v>
       </c>
@@ -16415,10 +16415,10 @@
         <v>12.4</v>
       </c>
       <c r="I492" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>664</v>
       </c>
@@ -16444,10 +16444,10 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="I493" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>661</v>
       </c>
@@ -16470,10 +16470,10 @@
         <v>6.6</v>
       </c>
       <c r="I494" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>666</v>
       </c>
@@ -16496,10 +16496,10 @@
         <v>4.7</v>
       </c>
       <c r="I495" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>659</v>
       </c>
@@ -16522,10 +16522,10 @@
         <v>8.1</v>
       </c>
       <c r="I496" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>679</v>
       </c>
@@ -16548,10 +16548,10 @@
         <v>2.1</v>
       </c>
       <c r="I497" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>681</v>
       </c>
@@ -16574,10 +16574,10 @@
         <v>15.3</v>
       </c>
       <c r="I498" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>683</v>
       </c>
@@ -16603,10 +16603,10 @@
         <v>14.5</v>
       </c>
       <c r="I499" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>684</v>
       </c>
@@ -16632,10 +16632,10 @@
         <v>11.9</v>
       </c>
       <c r="I500" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>686</v>
       </c>
@@ -16658,10 +16658,10 @@
         <v>8.5</v>
       </c>
       <c r="I501" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>687</v>
       </c>
@@ -16687,10 +16687,10 @@
         <v>7</v>
       </c>
       <c r="I502" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>689</v>
       </c>
@@ -16713,10 +16713,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I503" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>690</v>
       </c>
@@ -16739,10 +16739,10 @@
         <v>4.5</v>
       </c>
       <c r="I504" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>691</v>
       </c>
@@ -16768,10 +16768,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="I505" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>631</v>
       </c>
@@ -16797,10 +16797,10 @@
         <v>11</v>
       </c>
       <c r="I506" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>693</v>
       </c>
@@ -16826,10 +16826,10 @@
         <v>10.3</v>
       </c>
       <c r="I507" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>695</v>
       </c>
@@ -16855,10 +16855,10 @@
         <v>10</v>
       </c>
       <c r="I508" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>633</v>
       </c>
@@ -16884,10 +16884,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="I509" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>634</v>
       </c>
@@ -16913,10 +16913,10 @@
         <v>8.9</v>
       </c>
       <c r="I510" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>696</v>
       </c>
@@ -16942,10 +16942,10 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="I511" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>638</v>
       </c>
@@ -16971,10 +16971,10 @@
         <v>6.4</v>
       </c>
       <c r="I512" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>697</v>
       </c>
@@ -17000,10 +17000,10 @@
         <v>5.6</v>
       </c>
       <c r="I513" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>698</v>
       </c>
@@ -17029,10 +17029,10 @@
         <v>15.5</v>
       </c>
       <c r="I514" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>699</v>
       </c>
@@ -17058,10 +17058,10 @@
         <v>13.6</v>
       </c>
       <c r="I515" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>700</v>
       </c>
@@ -17087,10 +17087,10 @@
         <v>12.5</v>
       </c>
       <c r="I516" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>702</v>
       </c>
@@ -17116,10 +17116,10 @@
         <v>9.6</v>
       </c>
       <c r="I517" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>704</v>
       </c>
@@ -17145,10 +17145,10 @@
         <v>10</v>
       </c>
       <c r="I518" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>705</v>
       </c>
@@ -17174,10 +17174,10 @@
         <v>7</v>
       </c>
       <c r="I519" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>706</v>
       </c>
@@ -17203,10 +17203,10 @@
         <v>6.4</v>
       </c>
       <c r="I520" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>708</v>
       </c>
@@ -17229,10 +17229,10 @@
         <v>3.6</v>
       </c>
       <c r="I521" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>710</v>
       </c>
@@ -17258,10 +17258,10 @@
         <v>18.2</v>
       </c>
       <c r="I522" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>712</v>
       </c>
@@ -17287,10 +17287,10 @@
         <v>13.4</v>
       </c>
       <c r="I523" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>714</v>
       </c>
@@ -17316,10 +17316,10 @@
         <v>12.7</v>
       </c>
       <c r="I524" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>716</v>
       </c>
@@ -17345,10 +17345,10 @@
         <v>13.4</v>
       </c>
       <c r="I525" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>717</v>
       </c>
@@ -17374,10 +17374,10 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I526" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>719</v>
       </c>
@@ -17403,10 +17403,10 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="I527" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>720</v>
       </c>
@@ -17432,10 +17432,10 @@
         <v>5.6</v>
       </c>
       <c r="I528" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>721</v>
       </c>
@@ -17461,10 +17461,10 @@
         <v>4.8</v>
       </c>
       <c r="I529" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>725</v>
       </c>
@@ -17487,10 +17487,10 @@
         <v>25</v>
       </c>
       <c r="I530" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>727</v>
       </c>
@@ -17513,10 +17513,10 @@
         <v>13</v>
       </c>
       <c r="I531" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>729</v>
       </c>
@@ -17539,10 +17539,10 @@
         <v>12.6</v>
       </c>
       <c r="I532" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>730</v>
       </c>
@@ -17565,10 +17565,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I533" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>732</v>
       </c>
@@ -17591,10 +17591,10 @@
         <v>5.6</v>
       </c>
       <c r="I534" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>733</v>
       </c>
@@ -17617,10 +17617,10 @@
         <v>3.5</v>
       </c>
       <c r="I535" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>735</v>
       </c>
@@ -17643,10 +17643,10 @@
         <v>3.3</v>
       </c>
       <c r="I536" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>737</v>
       </c>
@@ -17669,10 +17669,10 @@
         <v>2.9</v>
       </c>
       <c r="I537" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>738</v>
       </c>
@@ -17698,10 +17698,10 @@
         <v>17.5</v>
       </c>
       <c r="I538" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>739</v>
       </c>
@@ -17727,10 +17727,10 @@
         <v>13.4</v>
       </c>
       <c r="I539" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>604</v>
       </c>
@@ -17756,10 +17756,10 @@
         <v>12.9</v>
       </c>
       <c r="I540" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>740</v>
       </c>
@@ -17785,10 +17785,10 @@
         <v>10.1</v>
       </c>
       <c r="I541" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>742</v>
       </c>
@@ -17814,10 +17814,10 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I542" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>605</v>
       </c>
@@ -17843,10 +17843,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="I543" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>744</v>
       </c>
@@ -17872,10 +17872,10 @@
         <v>1.6</v>
       </c>
       <c r="I544" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>746</v>
       </c>
@@ -17901,10 +17901,10 @@
         <v>0.9</v>
       </c>
       <c r="I545" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>714</v>
       </c>
@@ -17930,10 +17930,10 @@
         <v>18.3</v>
       </c>
       <c r="I546" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>712</v>
       </c>
@@ -17959,10 +17959,10 @@
         <v>14.7</v>
       </c>
       <c r="I547" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>719</v>
       </c>
@@ -17988,10 +17988,10 @@
         <v>12.5</v>
       </c>
       <c r="I548" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>717</v>
       </c>
@@ -18017,10 +18017,10 @@
         <v>11.8</v>
       </c>
       <c r="I549" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>748</v>
       </c>
@@ -18046,10 +18046,10 @@
         <v>7.1</v>
       </c>
       <c r="I550" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>722</v>
       </c>
@@ -18072,10 +18072,10 @@
         <v>5.5</v>
       </c>
       <c r="I551" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>720</v>
       </c>
@@ -18101,10 +18101,10 @@
         <v>4.5</v>
       </c>
       <c r="I552" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>724</v>
       </c>
@@ -18130,10 +18130,10 @@
         <v>6.2</v>
       </c>
       <c r="I553" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>721</v>
       </c>
@@ -18159,10 +18159,10 @@
         <v>6.1</v>
       </c>
       <c r="I554" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>751</v>
       </c>
@@ -18188,10 +18188,10 @@
         <v>16.8</v>
       </c>
       <c r="I555" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>753</v>
       </c>
@@ -18214,10 +18214,10 @@
         <v>12.2</v>
       </c>
       <c r="I556" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>755</v>
       </c>
@@ -18240,10 +18240,10 @@
         <v>10.6</v>
       </c>
       <c r="I557" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>756</v>
       </c>
@@ -18269,10 +18269,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I558" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>757</v>
       </c>
@@ -18298,10 +18298,10 @@
         <v>10</v>
       </c>
       <c r="I559" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>758</v>
       </c>
@@ -18327,10 +18327,10 @@
         <v>8.1</v>
       </c>
       <c r="I560" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>760</v>
       </c>
@@ -18353,10 +18353,10 @@
         <v>7.2</v>
       </c>
       <c r="I561" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>761</v>
       </c>
@@ -18379,10 +18379,10 @@
         <v>4.2</v>
       </c>
       <c r="I562" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>763</v>
       </c>
@@ -18408,10 +18408,10 @@
         <v>14.6</v>
       </c>
       <c r="I563" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>764</v>
       </c>
@@ -18434,10 +18434,10 @@
         <v>16.100000000000001</v>
       </c>
       <c r="I564" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>766</v>
       </c>
@@ -18463,10 +18463,10 @@
         <v>10.9</v>
       </c>
       <c r="I565" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>768</v>
       </c>
@@ -18489,10 +18489,10 @@
         <v>10.9</v>
       </c>
       <c r="I566" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>769</v>
       </c>
@@ -18515,10 +18515,10 @@
         <v>11.8</v>
       </c>
       <c r="I567" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>771</v>
       </c>
@@ -18544,10 +18544,10 @@
         <v>7.4</v>
       </c>
       <c r="I568" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>773</v>
       </c>
@@ -18570,10 +18570,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="I569" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>775</v>
       </c>
@@ -18596,10 +18596,10 @@
         <v>3</v>
       </c>
       <c r="I570" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>777</v>
       </c>
@@ -18625,10 +18625,10 @@
         <v>21.4</v>
       </c>
       <c r="I571" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>779</v>
       </c>
@@ -18654,10 +18654,10 @@
         <v>13.9</v>
       </c>
       <c r="I572" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>780</v>
       </c>
@@ -18680,10 +18680,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I573" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>782</v>
       </c>
@@ -18706,10 +18706,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I574" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>783</v>
       </c>
@@ -18732,10 +18732,10 @@
         <v>5.8</v>
       </c>
       <c r="I575" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>785</v>
       </c>
@@ -18758,10 +18758,10 @@
         <v>5.6</v>
       </c>
       <c r="I576" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>786</v>
       </c>
@@ -18784,10 +18784,10 @@
         <v>4.2</v>
       </c>
       <c r="I577" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>787</v>
       </c>
@@ -18810,10 +18810,10 @@
         <v>3.2</v>
       </c>
       <c r="I578" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>702</v>
       </c>
@@ -18839,10 +18839,10 @@
         <v>18.899999999999999</v>
       </c>
       <c r="I579" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>706</v>
       </c>
@@ -18868,10 +18868,10 @@
         <v>17.7</v>
       </c>
       <c r="I580" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>709</v>
       </c>
@@ -18894,10 +18894,10 @@
         <v>13.4</v>
       </c>
       <c r="I581" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>789</v>
       </c>
@@ -18923,10 +18923,10 @@
         <v>10.9</v>
       </c>
       <c r="I582" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>791</v>
       </c>
@@ -18949,10 +18949,10 @@
         <v>10.6</v>
       </c>
       <c r="I583" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>705</v>
       </c>
@@ -18978,10 +18978,10 @@
         <v>10</v>
       </c>
       <c r="I584" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>793</v>
       </c>
@@ -19004,10 +19004,10 @@
         <v>4.3</v>
       </c>
       <c r="I585" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>795</v>
       </c>
@@ -19033,10 +19033,10 @@
         <v>3.1</v>
       </c>
       <c r="I586" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>796</v>
       </c>
@@ -19062,10 +19062,10 @@
         <v>14.6</v>
       </c>
       <c r="I587" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>797</v>
       </c>
@@ -19091,10 +19091,10 @@
         <v>13</v>
       </c>
       <c r="I588" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>798</v>
       </c>
@@ -19117,10 +19117,10 @@
         <v>12.9</v>
       </c>
       <c r="I589" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>800</v>
       </c>
@@ -19143,10 +19143,10 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I590" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>802</v>
       </c>
@@ -19172,10 +19172,10 @@
         <v>7.3</v>
       </c>
       <c r="I591" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>803</v>
       </c>
@@ -19201,10 +19201,10 @@
         <v>6.1</v>
       </c>
       <c r="I592" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>804</v>
       </c>
@@ -19227,10 +19227,10 @@
         <v>3.4</v>
       </c>
       <c r="I593" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>806</v>
       </c>
@@ -19253,10 +19253,10 @@
         <v>3.4</v>
       </c>
       <c r="I594" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>807</v>
       </c>
@@ -19282,10 +19282,10 @@
         <v>17.3</v>
       </c>
       <c r="I595" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>808</v>
       </c>
@@ -19311,10 +19311,10 @@
         <v>14.6</v>
       </c>
       <c r="I596" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>810</v>
       </c>
@@ -19340,10 +19340,10 @@
         <v>14.2</v>
       </c>
       <c r="I597" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>811</v>
       </c>
@@ -19369,10 +19369,10 @@
         <v>12.1</v>
       </c>
       <c r="I598" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>812</v>
       </c>
@@ -19398,10 +19398,10 @@
         <v>13</v>
       </c>
       <c r="I599" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>814</v>
       </c>
@@ -19427,10 +19427,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I600" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>815</v>
       </c>
@@ -19453,10 +19453,10 @@
         <v>3.8</v>
       </c>
       <c r="I601" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>816</v>
       </c>
@@ -19479,10 +19479,10 @@
         <v>4</v>
       </c>
       <c r="I602" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>818</v>
       </c>
@@ -19505,10 +19505,10 @@
         <v>13.2</v>
       </c>
       <c r="I603" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>819</v>
       </c>
@@ -19531,10 +19531,10 @@
         <v>11.1</v>
       </c>
       <c r="I604" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>821</v>
       </c>
@@ -19557,10 +19557,10 @@
         <v>11</v>
       </c>
       <c r="I605" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>822</v>
       </c>
@@ -19583,10 +19583,10 @@
         <v>11</v>
       </c>
       <c r="I606" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>824</v>
       </c>
@@ -19609,10 +19609,10 @@
         <v>10.5</v>
       </c>
       <c r="I607" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>826</v>
       </c>
@@ -19635,10 +19635,10 @@
         <v>6.9</v>
       </c>
       <c r="I608" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>827</v>
       </c>
@@ -19661,10 +19661,10 @@
         <v>4.7</v>
       </c>
       <c r="I609" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>828</v>
       </c>
@@ -19687,10 +19687,10 @@
         <v>3.2</v>
       </c>
       <c r="I610" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>830</v>
       </c>
@@ -19715,8 +19715,11 @@
       <c r="H611" s="3">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I611" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>831</v>
       </c>
@@ -19741,8 +19744,11 @@
       <c r="H612" s="3">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I612" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>833</v>
       </c>
@@ -19767,8 +19773,11 @@
       <c r="H613" s="3">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I613" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>834</v>
       </c>
@@ -19793,8 +19802,11 @@
       <c r="H614" s="3">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I614" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>835</v>
       </c>
@@ -19816,8 +19828,11 @@
       <c r="H615" s="3">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I615" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>837</v>
       </c>
@@ -19839,8 +19854,11 @@
       <c r="H616" s="3">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I616" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>838</v>
       </c>
@@ -19865,8 +19883,11 @@
       <c r="H617" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I617" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>840</v>
       </c>
@@ -19888,8 +19909,11 @@
       <c r="H618" s="3">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I618" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>842</v>
       </c>
@@ -19911,8 +19935,11 @@
       <c r="H619" s="3">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I619" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>844</v>
       </c>
@@ -19934,8 +19961,11 @@
       <c r="H620" s="3">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I620" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>846</v>
       </c>
@@ -19957,8 +19987,11 @@
       <c r="H621" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I621" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>848</v>
       </c>
@@ -19980,8 +20013,11 @@
       <c r="H622" s="3">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I622" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>850</v>
       </c>
@@ -20006,8 +20042,11 @@
       <c r="H623" s="3">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I623" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>852</v>
       </c>
@@ -20029,8 +20068,11 @@
       <c r="H624" s="3">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I624" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>854</v>
       </c>
@@ -20052,8 +20094,11 @@
       <c r="H625" s="3">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I625" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>856</v>
       </c>
@@ -20075,8 +20120,11 @@
       <c r="H626" s="3">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I626" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>857</v>
       </c>
@@ -20101,8 +20149,11 @@
       <c r="H627" s="3">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I627" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>858</v>
       </c>
@@ -20127,8 +20178,11 @@
       <c r="H628" s="3">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I628" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>859</v>
       </c>
@@ -20153,8 +20207,11 @@
       <c r="H629" s="3">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I629" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>861</v>
       </c>
@@ -20176,8 +20233,11 @@
       <c r="H630" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I630" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>863</v>
       </c>
@@ -20202,8 +20262,11 @@
       <c r="H631" s="3">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I631" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>864</v>
       </c>
@@ -20225,8 +20288,11 @@
       <c r="H632" s="3">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I632" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>866</v>
       </c>
@@ -20251,8 +20317,11 @@
       <c r="H633" s="3">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I633" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>867</v>
       </c>
@@ -20274,8 +20343,11 @@
       <c r="H634" s="3">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I634" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>869</v>
       </c>
@@ -20297,8 +20369,11 @@
       <c r="H635" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I635" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>870</v>
       </c>
@@ -20323,8 +20398,11 @@
       <c r="H636" s="3">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I636" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>872</v>
       </c>
@@ -20349,8 +20427,11 @@
       <c r="H637" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I637" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>873</v>
       </c>
@@ -20372,8 +20453,11 @@
       <c r="H638" s="3">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I638" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>874</v>
       </c>
@@ -20395,8 +20479,11 @@
       <c r="H639" s="3">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I639" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>876</v>
       </c>
@@ -20418,8 +20505,11 @@
       <c r="H640" s="3">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I640" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>878</v>
       </c>
@@ -20441,8 +20531,11 @@
       <c r="H641" s="3">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I641" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>880</v>
       </c>
@@ -20466,6 +20559,9 @@
       </c>
       <c r="H642" s="3">
         <v>4.3</v>
+      </c>
+      <c r="I642" s="3" t="s">
+        <v>913</v>
       </c>
     </row>
   </sheetData>
